--- a/trends/WSD state of the art.xlsx
+++ b/trends/WSD state of the art.xlsx
@@ -13,30 +13,39 @@
     <sheet state="visible" name="ideas" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">results!$A$1:$R$95</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">results!$A$1:$S$96</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="184">
   <si>
     <t>described</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>in_competition</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -85,9 +94,6 @@
     <t>Multilingual</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>n,v,a,r</t>
   </si>
   <si>
@@ -106,7 +112,7 @@
     <t>se3-aw</t>
   </si>
   <si>
-    <t>to go</t>
+    <t>no</t>
   </si>
   <si>
     <t>IMS-1M</t>
@@ -176,12 +182,12 @@
     <t>framework</t>
   </si>
   <si>
+    <t>se2-aw-v2</t>
+  </si>
+  <si>
     <t>se13-aw-v2</t>
   </si>
   <si>
-    <t>se2-aw-v2</t>
-  </si>
-  <si>
     <t>c2v iters+</t>
   </si>
   <si>
@@ -221,37 +227,52 @@
     <t>https://aclanthology.coli.uni-saarland.de/papers/J17-1002/j17-1002.bib</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>IMS+embeddings</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/P16-1085/p16-1085.bib</t>
+  </si>
+  <si>
+    <t>IMS-s+emb SemCor</t>
+  </si>
+  <si>
+    <t>Word2Vec OMSTI</t>
+  </si>
+  <si>
+    <t>IMS+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>IMS + Word2Vec (OMSTI)</t>
+  </si>
+  <si>
+    <t>se2-aw___nouns</t>
+  </si>
+  <si>
+    <t>IMS-s+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>IMS+emb SemCor</t>
+  </si>
+  <si>
+    <t>IMS+emb (SemCor)</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/P10-4014/p10-4014.bib</t>
+  </si>
+  <si>
+    <t>SemCor + OMSTI</t>
+  </si>
+  <si>
     <t>how to name systems</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>IMS+embeddings</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/P16-1085/p16-1085.bib</t>
-  </si>
-  <si>
-    <t>IMS+emb (SemCor)</t>
-  </si>
-  <si>
-    <t>IMS+emb SemCor + OMSTI</t>
-  </si>
-  <si>
-    <t>IMS-s+emb SemCor</t>
-  </si>
-  <si>
-    <t>IMS-s+emb SemCor + OMSTI</t>
-  </si>
-  <si>
-    <t>IMS + Word2Vec (OMSTI)</t>
-  </si>
-  <si>
-    <t>se2-aw___nouns</t>
-  </si>
-  <si>
-    <t>IMS+emb SemCor</t>
+    <t>rank 1 system</t>
   </si>
   <si>
     <t>higher than competition or close to</t>
@@ -263,9 +284,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>Word2Vec OMSTI</t>
-  </si>
-  <si>
     <t>-rag means raganato</t>
   </si>
   <si>
@@ -278,18 +296,6 @@
     <t>all rag results are either from the paper or from raganato et al. (2017)</t>
   </si>
   <si>
-    <t>IMS</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/P10-4014/p10-4014.bib</t>
-  </si>
-  <si>
-    <t>rank 1 system</t>
-  </si>
-  <si>
-    <t>SemCor + OMSTI</t>
-  </si>
-  <si>
     <t>Google-LSTM</t>
   </si>
   <si>
@@ -317,36 +323,27 @@
     <t>https://scholar.googleusercontent.com/scholar.bib?q=info:L7bpWhZnosIJ:scholar.google.com/&amp;output=citation&amp;scisig=AAGBfm0AAAAAW3aYLyb7UeQ3P2UTiNSl6Loy7yZruaM8&amp;scisf=4&amp;ct=citation&amp;cd=-1&amp;hl=nl</t>
   </si>
   <si>
+    <t>lexical</t>
+  </si>
+  <si>
+    <t>lexical +IMS</t>
+  </si>
+  <si>
     <t>lexical + IMS</t>
   </si>
   <si>
-    <t>lexical +IMS</t>
-  </si>
-  <si>
-    <t>lexical</t>
-  </si>
-  <si>
     <t>WSD-RNN</t>
   </si>
   <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/R17-2004/r17-2004.bib</t>
   </si>
   <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
     <t>BLSTM + att</t>
   </si>
   <si>
     <t>BLSTM + att + LEX</t>
   </si>
   <si>
-    <t>Training data</t>
-  </si>
-  <si>
-    <t>Domains_Supersenses</t>
-  </si>
-  <si>
     <t>Neural-Sequence</t>
   </si>
   <si>
@@ -354,6 +351,57 @@
   </si>
   <si>
     <t>BLSTM + att + LEX + POS</t>
+  </si>
+  <si>
+    <t>SMUaw</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
+  </si>
+  <si>
+    <t>SupWSD</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb (SemCor + OMSTI)</t>
+  </si>
+  <si>
+    <t>se3-aw-rag</t>
+  </si>
+  <si>
+    <t>se7-aw-rag</t>
+  </si>
+  <si>
+    <t>se15-aw-rag</t>
+  </si>
+  <si>
+    <t>Train-O-Matic Wiki</t>
+  </si>
+  <si>
+    <t>BabelNet</t>
+  </si>
+  <si>
+    <t>IMSeurosense</t>
+  </si>
+  <si>
+    <t>Train-O-Matic</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1008/d17-1008.bib</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
+  </si>
+  <si>
+    <t>PPRw2w</t>
   </si>
   <si>
     <t>densest subgraph heuristic which selects high-coherence semantic interpretations.</t>
@@ -368,19 +416,19 @@
 previously-computed semantic signatures. </t>
   </si>
   <si>
-    <t>SMUaw</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Training data</t>
   </si>
   <si>
     <t>similar to Babelfy, but in a continuous setting</t>
   </si>
   <si>
-    <t>SupWSD</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
+    <t>Domains_Supersenses</t>
+  </si>
+  <si>
+    <t>gloss</t>
   </si>
   <si>
     <t>static</t>
@@ -389,55 +437,64 @@
     <t>context independent ranking of senses</t>
   </si>
   <si>
+    <t>PPR</t>
+  </si>
+  <si>
     <t>closely related to MFS</t>
   </si>
   <si>
     <t>using context</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb SemCor + OMSTI</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
     <t>extract content words of sentence</t>
   </si>
   <si>
-    <t>SC, DSO, MUN</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb (SemCor + OMSTI)</t>
-  </si>
-  <si>
     <t>context words are first inserted into the graph G  as nodes, and linked with directed edges to their respective concepts</t>
-  </si>
-  <si>
-    <t>se3-aw-rag</t>
   </si>
   <si>
     <t>concentrating the initial probability mass uniformly over the newly introduced word
 nodes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve"> word-to-word -&gt; run ppr separately for each target word (no interaction with other target words)</t>
   </si>
   <si>
-    <t>se7-aw-rag</t>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SC, DSO, MUN</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Google News</t>
   </si>
   <si>
     <t>iteratively updating graph when disambiguating (not with great results)</t>
   </si>
   <si>
-    <t>se15-aw-rag</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dense subgraph</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>terminology</t>
   </si>
   <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>SC, MUN</t>
+  </si>
+  <si>
     <t>word</t>
   </si>
   <si>
@@ -453,33 +510,30 @@
     <t>building matrices to achieve textual coherence (some words are more relevant than other for disambiguation)</t>
   </si>
   <si>
-    <t>Autoencoder</t>
-  </si>
-  <si>
-    <t>Google News</t>
+    <t>Multi-Objective Optimization</t>
+  </si>
+  <si>
+    <t>Attentive Bidirectional LSTM</t>
+  </si>
+  <si>
+    <t>SVM + embeddings</t>
+  </si>
+  <si>
+    <t>ukWaC</t>
   </si>
   <si>
     <t>automatic mapping WordNet and Wikipedia</t>
   </si>
   <si>
+    <t>n,v,ar</t>
+  </si>
+  <si>
     <t>noun relations are transferred from Wikipedia to WordNet</t>
   </si>
   <si>
-    <t>Train-O-Matic Wiki</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>WSD improves (on nouns) when doing this (e.g. more relatedness edges is better)</t>
   </si>
   <si>
-    <t>Dense subgraph</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>degee centrality</t>
   </si>
   <si>
@@ -489,13 +543,16 @@
     <t>can we add cross-pos relations automatically?</t>
   </si>
   <si>
+    <t>Game-theoric</t>
+  </si>
+  <si>
     <t>morphological normalization results</t>
   </si>
   <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>SC, MUN</t>
+    <t>UKB-optimal</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/W18-2505/w18-2505.bib</t>
   </si>
   <si>
     <t>first sense way better connected than other senses</t>
@@ -507,61 +564,10 @@
     <t>normalization and gloss relations extremely important</t>
   </si>
   <si>
-    <t>Multi-Objective Optimization</t>
-  </si>
-  <si>
-    <t>BabelNet</t>
-  </si>
-  <si>
-    <t>IMSeurosense</t>
-  </si>
-  <si>
     <t>Degree or PR indication of hunger for knowledge</t>
   </si>
   <si>
     <t>also use sense rank of indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>Attentive Bidirectional LSTM</t>
-  </si>
-  <si>
-    <t>Train-O-Matic</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1008/d17-1008.bib</t>
-  </si>
-  <si>
-    <t>SVM + embeddings</t>
-  </si>
-  <si>
-    <t>ukWaC</t>
-  </si>
-  <si>
-    <t>n,v,ar</t>
-  </si>
-  <si>
-    <t>UKB</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
-  </si>
-  <si>
-    <t>Game-theoric</t>
-  </si>
-  <si>
-    <t>PPRw2w</t>
-  </si>
-  <si>
-    <t>gloss</t>
-  </si>
-  <si>
-    <t>PPR</t>
-  </si>
-  <si>
-    <t>UKB-optimal</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/W18-2505/w18-2505.bib</t>
   </si>
   <si>
     <t>UMCC-DLSI</t>
@@ -602,15 +608,15 @@
     </font>
     <font/>
     <font>
-      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <b/>
     </font>
     <font>
       <u/>
@@ -649,17 +655,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -720,79 +726,82 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="7.14"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="8" width="10.29"/>
-    <col customWidth="1" min="9" max="9" width="33.57"/>
-    <col customWidth="1" min="11" max="11" width="7.86"/>
-    <col customWidth="1" min="12" max="12" width="6.71"/>
-    <col customWidth="1" min="13" max="13" width="8.14"/>
-    <col customWidth="1" min="14" max="14" width="8.86"/>
-    <col customWidth="1" min="15" max="15" width="15.86"/>
-    <col customWidth="1" min="16" max="16" width="9.57"/>
-    <col customWidth="1" min="17" max="17" width="18.86"/>
+    <col customWidth="1" min="2" max="5" width="18.57"/>
+    <col customWidth="1" min="6" max="6" width="10.0"/>
+    <col customWidth="1" min="7" max="7" width="7.14"/>
+    <col customWidth="1" min="8" max="8" width="8.29"/>
+    <col customWidth="1" min="9" max="9" width="10.29"/>
+    <col customWidth="1" min="10" max="10" width="33.57"/>
+    <col customWidth="1" min="12" max="12" width="7.86"/>
+    <col customWidth="1" min="13" max="13" width="6.71"/>
+    <col customWidth="1" min="14" max="14" width="8.14"/>
+    <col customWidth="1" min="15" max="15" width="8.86"/>
+    <col customWidth="1" min="16" max="16" width="15.86"/>
+    <col customWidth="1" min="17" max="17" width="9.57"/>
+    <col customWidth="1" min="18" max="18" width="18.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A4" si="1">HYPERLINK("http://aclweb.org/anthology/K15-1037","1million")</f>
         <v>1million</v>
       </c>
@@ -801,30 +810,31 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1">
         <v>59.1</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1million</v>
       </c>
@@ -833,72 +843,76 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1">
         <v>67.6</v>
       </c>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>21</v>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1million</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1">
         <v>2015.0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1">
         <v>68.0</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>21</v>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" hidden="1">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A6" si="2">HYPERLINK("http://aclweb.org/anthology/P15-1173","AutoExtend")</f>
         <v>AutoExtend</v>
       </c>
@@ -907,134 +921,142 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1">
         <v>73.6</v>
       </c>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>21</v>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>AutoExtend</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>66.5</v>
       </c>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>21</v>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1020","AVE-Antwerp")</f>
         <v>AVE-Antwerp</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1">
         <v>2001.0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1">
         <v>63.6</v>
       </c>
     </row>
     <row r="8" hidden="1">
-      <c r="A8" s="3" t="str">
-        <f t="shared" ref="A8:A11" si="3">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
+      <c r="A8" s="2" t="str">
+        <f t="shared" ref="A8:A10" si="3">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1">
         <v>68.3</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" hidden="1">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Babelfy</v>
       </c>
@@ -1042,166 +1064,177 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>2014.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="1">
         <v>69.2</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" hidden="1">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Babelfy</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="1">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="1">
         <v>62.7</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>HYPERLINK("http://www.aclweb.org/anthology/Q14-1019","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
+        <v>Babelfy</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="N12" s="1">
+        <v>65.9</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="str">
+        <f>HYPERLINK("http://www.aclweb.org/anthology/Q14-1019","Babelfy")</f>
+        <v>Babelfy</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="1">
-        <v>65.9</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <f t="shared" ref="A12:A13" si="4">HYPERLINK("http://www.aclweb.org/anthology/Q14-1019","Babelfy")</f>
-        <v>Babelfy</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="1">
         <v>66.4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Babelfy</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="1">
-        <v>67.0</v>
-      </c>
-    </row>
     <row r="14" hidden="1">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/K16-1006","Context2vec")</f>
         <v>Context2vec</v>
       </c>
@@ -1210,184 +1243,197 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="1">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="1">
         <v>72.8</v>
       </c>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="str">
-        <f t="shared" ref="A15:A18" si="5">HYPERLINK("http://www.aclweb.org/anthology/K16-1006","context2vec")</f>
+      <c r="A15" s="2" t="str">
+        <f t="shared" ref="A15:A18" si="4">HYPERLINK("http://www.aclweb.org/anthology/K16-1006","context2vec")</f>
         <v>context2vec</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2016.0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>65.6</v>
       </c>
-      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="1">
-        <v>67.2</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1">
+        <v>71.8</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2016.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="1">
-        <v>71.8</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>67.2</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="1">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1">
         <v>72.3</v>
       </c>
-      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" hidden="1">
-      <c r="A19" s="3" t="str">
-        <f t="shared" ref="A19:A23" si="6">HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
+      <c r="A19" s="2" t="str">
+        <f t="shared" ref="A19:A23" si="5">HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
       <c r="B19" s="1"/>
@@ -1395,31 +1441,32 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="1">
+        <v>57</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="1">
         <v>68.8</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O19" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" hidden="1">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
       <c r="B20" s="1"/>
@@ -1427,29 +1474,30 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="1">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="1">
         <v>68.8</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" hidden="1">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
       <c r="B21" s="1"/>
@@ -1457,31 +1505,32 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="1">
+        <v>57</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="1">
         <v>66.0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" hidden="1">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
       <c r="B22" s="1"/>
@@ -1489,71 +1538,75 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="1">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="1">
         <v>66.0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="6"/>
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="K23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="1">
         <v>72.8</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" hidden="1">
-      <c r="A24" s="3" t="str">
-        <f t="shared" ref="A24:A27" si="7">HYPERLINK("https://arxiv.org/pdf/1606.07711.pdf","Game-theoretic")</f>
+      <c r="A24" s="2" t="str">
+        <f t="shared" ref="A24:A27" si="6">HYPERLINK("https://arxiv.org/pdf/1606.07711.pdf","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="B24" s="1"/>
@@ -1561,28 +1614,29 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1">
+        <v>61</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="1">
         <v>56.5</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>21</v>
+      <c r="P24" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" hidden="1">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
       <c r="B25" s="1"/>
@@ -1590,28 +1644,29 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="1">
+        <v>62</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="1">
         <v>43.3</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>21</v>
+      <c r="P25" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" hidden="1">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
       <c r="B26" s="1"/>
@@ -1619,28 +1674,29 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="1">
+        <v>61</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="1">
         <v>64.7</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>21</v>
+      <c r="P26" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" hidden="1">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
       <c r="B27" s="1"/>
@@ -1648,262 +1704,283 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="1">
+        <v>62</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="1">
         <v>59.1</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>21</v>
+      <c r="P27" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="str">
-        <f t="shared" ref="A28:A29" si="8">HYPERLINK("http://aclweb.org/anthology/J17-1002","Game-theoretic")</f>
+      <c r="A28" s="2" t="str">
+        <f t="shared" ref="A28:A29" si="7">HYPERLINK("http://aclweb.org/anthology/J17-1002","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Game-theoretic</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="H29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="1">
         <v>70.8</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Game-theoretic</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>21</v>
+      <c r="P29" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="str">
-        <f t="shared" ref="A30:A43" si="9">HYPERLINK("http://aclweb.org/anthology/P16-1085","Iacobacci")</f>
+      <c r="A30" s="2" t="str">
+        <f t="shared" ref="A30:A43" si="8">HYPERLINK("http://aclweb.org/anthology/P16-1085","Iacobacci")</f>
         <v>Iacobacci</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" s="1">
-        <v>67.3</v>
-      </c>
-      <c r="N30" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="1">
+        <v>65.9</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="1">
-        <v>66.3</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="1">
+        <v>68.3</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="1">
-        <v>65.9</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="1">
+        <v>70.8</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="N33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="1">
+        <v>66.3</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" hidden="1">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B34" s="1"/>
@@ -1911,30 +1988,31 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="K34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="1">
         <v>68.2</v>
       </c>
-      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="Q34" s="1" t="s">
-        <v>21</v>
+      <c r="P34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35" hidden="1">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A35" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B35" s="1"/>
@@ -1942,30 +2020,31 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="K35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="1">
         <v>71.5</v>
       </c>
-      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="Q35" s="1" t="s">
-        <v>21</v>
+      <c r="P35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" hidden="1">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A36" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B36" s="1"/>
@@ -1973,30 +2052,31 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>77.7</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="Q36" s="1" t="s">
-        <v>21</v>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" hidden="1">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A37" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B37" s="1"/>
@@ -2004,30 +2084,31 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="K37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="1">
         <v>74.1</v>
       </c>
-      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="Q37" s="1" t="s">
-        <v>21</v>
+      <c r="P37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38" hidden="1">
-      <c r="A38" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B38" s="1"/>
@@ -2035,422 +2116,451 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="K38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="1">
         <v>59.1</v>
       </c>
-      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="Q38" s="1" t="s">
-        <v>21</v>
+      <c r="P38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A39" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M39" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="N39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="1">
+        <v>66.7</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A40" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="N40" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="1">
+        <v>71.0</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A41" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M41" s="1">
+        <v>68</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="1">
         <v>72.2</v>
       </c>
-      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A42" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M42" s="1">
+        <v>73</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="1">
         <v>73.3</v>
       </c>
-      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="A43" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="str">
+        <f t="shared" ref="A44:A50" si="9">HYPERLINK("http://aclweb.org/anthology/P10-4014","It makes sense")</f>
+        <v>It makes sense</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="1">
-        <v>68.3</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="Q43" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="str">
-        <f t="shared" ref="A44:A50" si="10">HYPERLINK("http://aclweb.org/anthology/P10-4014","It makes sense")</f>
-        <v>It makes sense</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1">
         <v>2010.0</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="N44" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="1">
+        <v>65.0</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A45" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1">
         <v>2010.0</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M45" s="1">
-        <v>70.9</v>
-      </c>
-      <c r="N45" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="1">
+        <v>65.3</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A46" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="1">
         <v>2010.0</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M46" s="1">
-        <v>72.8</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="1">
+        <v>70.9</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A47" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1">
         <v>2010.0</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47" s="1">
-        <v>65.3</v>
-      </c>
-      <c r="N47" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="1">
+        <v>69.0</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A48" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1">
         <v>2010.0</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="N48" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48" s="1">
+        <v>72.8</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
     </row>
     <row r="49" hidden="1">
-      <c r="A49" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A49" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B49" s="1"/>
@@ -2459,25 +2569,26 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="1">
+        <v>76</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="1">
         <v>67.6</v>
       </c>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
     </row>
     <row r="50" hidden="1">
-      <c r="A50" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="A50" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B50" s="1"/>
@@ -2486,66 +2597,70 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="1">
+        <v>80</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="1">
         <v>59.1</v>
       </c>
-      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="str">
-        <f t="shared" ref="A51:A58" si="11">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
+      <c r="A51" s="2" t="str">
+        <f t="shared" ref="A51:A58" si="10">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
         <v>LSTM</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="1">
+        <v>90</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="1">
         <v>69.5</v>
       </c>
-      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
-        <v>21</v>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="52" hidden="1">
-      <c r="A52" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A52" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B52" s="1"/>
@@ -2553,30 +2668,31 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="1">
+        <v>90</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="1">
         <v>71.8</v>
       </c>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
-        <v>21</v>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="53" hidden="1">
-      <c r="A53" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A53" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B53" s="1"/>
@@ -2584,30 +2700,31 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>79.9</v>
       </c>
-      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
-        <v>21</v>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54" hidden="1">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A54" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B54" s="1"/>
@@ -2615,30 +2732,31 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M54" s="1">
+        <v>92</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" s="1">
         <v>72.3</v>
       </c>
-      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
-        <v>21</v>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55" hidden="1">
-      <c r="A55" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A55" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B55" s="1"/>
@@ -2646,30 +2764,31 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" s="1">
+        <v>90</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N55" s="1">
         <v>72.6</v>
       </c>
-      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1" t="s">
-        <v>21</v>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="56" hidden="1">
-      <c r="A56" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A56" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B56" s="1"/>
@@ -2677,30 +2796,31 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="1">
+        <v>90</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="1">
         <v>76.3</v>
       </c>
-      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
-        <v>21</v>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="57" hidden="1">
-      <c r="A57" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A57" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B57" s="1"/>
@@ -2708,113 +2828,120 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="1">
+        <v>94</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="1">
         <v>63.7</v>
       </c>
-      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>21</v>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="A58" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M58" s="1">
+        <v>91</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N58" s="1">
         <v>74.4</v>
       </c>
-      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1" t="s">
-        <v>21</v>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="str">
-        <f t="shared" ref="A59:A62" si="12">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/AIJ_2016_CamachoColladosetal.pdf","Nasari")</f>
+      <c r="A59" s="2" t="str">
+        <f t="shared" ref="A59:A62" si="11">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/AIJ_2016_CamachoColladosetal.pdf","Nasari")</f>
         <v>Nasari</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M59" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="N59" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" s="1">
+        <v>66.7</v>
+      </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="R59" s="1" t="s">
-        <v>21</v>
+      <c r="Q59" s="1"/>
+      <c r="S59" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60" hidden="1">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="12"/>
+      <c r="A60" s="2" t="str">
+        <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
       <c r="B60" s="1"/>
@@ -2822,31 +2949,32 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M60" s="1">
+        <v>98</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" s="1">
         <v>68.5</v>
       </c>
-      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="R60" s="1" t="s">
-        <v>21</v>
+      <c r="Q60" s="1"/>
+      <c r="S60" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="61" hidden="1">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="12"/>
+      <c r="A61" s="2" t="str">
+        <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
       <c r="B61" s="1"/>
@@ -2854,109 +2982,116 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M61" s="1">
+      <c r="K61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="1">
         <v>67.0</v>
       </c>
-      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="R61" s="1" t="s">
-        <v>21</v>
+      <c r="Q61" s="1"/>
+      <c r="S61" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="str">
-        <f t="shared" si="12"/>
+      <c r="A62" s="2" t="str">
+        <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="1">
         <v>2016.0</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="N62" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" s="1">
+        <v>67.0</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="R62" s="1" t="s">
-        <v>21</v>
+      <c r="Q62" s="1"/>
+      <c r="S62" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="str">
+      <c r="A63" s="3" t="str">
         <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
         <v>Popov</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M63" s="1">
+        <v>57</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="1">
         <v>70.11</v>
       </c>
     </row>
     <row r="64" hidden="1">
-      <c r="A64" s="3" t="str">
-        <f t="shared" ref="A64:A65" si="13">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/EMNLP_2017_Raganatoetal.pdf","Raganato_et_al_2017")</f>
+      <c r="A64" s="2" t="str">
+        <f t="shared" ref="A64:A65" si="12">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/EMNLP_2017_Raganatoetal.pdf","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="B64" s="1"/>
@@ -2964,27 +3099,28 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="1">
+        <v>102</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="1">
         <v>70.2</v>
       </c>
-      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
     </row>
     <row r="65" hidden="1">
-      <c r="A65" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="A65" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="B65" s="1"/>
@@ -2992,609 +3128,648 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" s="1">
+        <v>103</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N65" s="1">
         <v>72.4</v>
       </c>
-      <c r="N65" s="1"/>
       <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A67" si="14">HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
+      <c r="A66" s="2" t="str">
+        <f t="shared" ref="A66:A67" si="13">HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="F66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="K66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="1">
+        <v>66.9</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Raganato_et_al_2017</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" s="1">
-        <v>66.9</v>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Raganato_et_al_2017</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="H67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M67" s="1">
+      <c r="K67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" s="1">
         <v>72.0</v>
       </c>
-      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="str">
+      <c r="A68" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1031","SMUaw")</f>
         <v>SMUaw</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2001.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="1">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="str">
+        <f t="shared" ref="A69:A73" si="14">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
+        <v>SUP WSD</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="1">
-        <v>2001.0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" s="1">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="str">
-        <f t="shared" ref="A69:A73" si="15">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
-        <v>SUP WSD</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="1">
+      <c r="K69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N69" s="1">
         <v>67.2</v>
       </c>
     </row>
     <row r="70" hidden="1">
-      <c r="A70" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>SUP WSD</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M70" s="1">
+        <v>112</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N70" s="1">
         <v>70.8</v>
       </c>
     </row>
     <row r="71" hidden="1">
-      <c r="A71" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="A71" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>SUP WSD</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M71" s="1">
+        <v>112</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N71" s="1">
         <v>64.2</v>
       </c>
     </row>
     <row r="72" hidden="1">
-      <c r="A72" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="A72" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>SUP WSD</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M72" s="1">
+        <v>112</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="1">
         <v>71.5</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="A73" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>SUP WSD</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M73" s="1">
+        <v>111</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N73" s="1">
         <v>73.8</v>
       </c>
     </row>
     <row r="74" hidden="1">
-      <c r="A74" s="4" t="str">
-        <f t="shared" ref="A74:A76" si="16">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+      <c r="A74" s="3" t="str">
+        <f t="shared" ref="A74:A76" si="15">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M74" s="1">
+        <v>116</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N74" s="1">
         <v>68.8</v>
       </c>
     </row>
     <row r="75" hidden="1">
-      <c r="A75" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="A75" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>Train-O-Matic</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M75" s="1">
+        <v>116</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N75" s="1">
         <v>59.8</v>
       </c>
     </row>
     <row r="76" hidden="1">
-      <c r="A76" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="A76" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>Train-O-Matic</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M76" s="1">
+        <v>116</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N76" s="1">
         <v>67.4</v>
       </c>
     </row>
     <row r="77" hidden="1">
-      <c r="A77" s="4" t="str">
-        <f t="shared" ref="A77:A78" si="17">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
+      <c r="A77" s="3" t="str">
+        <f t="shared" ref="A77:A78" si="16">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
         <v>Eurosense</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M77" s="1">
+        <v>118</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N77" s="1">
         <v>66.4</v>
       </c>
     </row>
     <row r="78" hidden="1">
-      <c r="A78" s="4" t="str">
-        <f t="shared" si="17"/>
+      <c r="A78" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>Eurosense</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M78" s="1">
+        <v>118</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N78" s="1">
         <v>69.5</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="str">
-        <f t="shared" ref="A79:A80" si="18">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+      <c r="A79" s="3" t="str">
+        <f t="shared" ref="A79:A80" si="17">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="1">
         <v>2017.0</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M79" s="1">
+        <v>116</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79" s="1">
         <v>65.5</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="str">
+      <c r="A80" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Train-O-Matic</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N80" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="str">
+        <f t="shared" ref="A81:A90" si="18">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
+        <v>UKB</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="1">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>Train-O-Matic</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J80" s="1" t="s">
+        <v>UKB</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M80" s="1">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="str">
-        <f t="shared" ref="A81:A90" si="19">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
+      <c r="G82" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N82" s="1">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="1">
         <v>2014.0</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M81" s="1">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>UKB</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M82" s="1">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>UKB</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M83" s="1">
-        <v>60.6</v>
+        <v>131</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="1">
+        <v>59.0</v>
       </c>
     </row>
     <row r="84" hidden="1">
-      <c r="A84" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A84" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
       <c r="B84" s="1"/>
@@ -3602,28 +3777,29 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M84" s="1">
+      <c r="N84" s="1">
         <v>71.8</v>
       </c>
-      <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
     </row>
     <row r="85" hidden="1">
-      <c r="A85" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A85" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
       <c r="B85" s="1"/>
@@ -3631,28 +3807,29 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="1">
+        <v>123</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="1">
         <v>57.9</v>
       </c>
-      <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
     </row>
     <row r="86" hidden="1">
-      <c r="A86" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A86" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
       <c r="B86" s="1"/>
@@ -3660,28 +3837,29 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M86" s="1">
+        <v>123</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N86" s="1">
         <v>65.3</v>
       </c>
-      <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
     </row>
     <row r="87" hidden="1">
-      <c r="A87" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A87" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
       <c r="B87" s="1"/>
@@ -3689,28 +3867,29 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" s="1">
+        <v>132</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="1">
         <v>43.0</v>
       </c>
-      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
     </row>
     <row r="88" hidden="1">
-      <c r="A88" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A88" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>UKB</v>
       </c>
       <c r="B88" s="1"/>
@@ -3718,322 +3897,344 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M88" s="1">
+        <v>123</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="1">
         <v>56.0</v>
       </c>
-      <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="str">
+      <c r="A89" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>UKB</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N89" s="1">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>UKB</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N90" s="1">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="str">
+        <f t="shared" ref="A91:A92" si="19">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
+        <v>UKB optimal</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N91" s="1">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>UKB</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M89" s="1">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>UKB</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" s="1" t="s">
+        <v>UKB optimal</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M90" s="1">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="str">
-        <f t="shared" ref="A91:A92" si="20">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
-        <v>UKB optimal</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="F92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="1">
         <v>2018.0</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M91" s="1">
+      <c r="H92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N92" s="1">
         <v>68.8</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>UKB optimal</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="1">
-        <v>2018.0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M92" s="1">
-        <v>68.8</v>
-      </c>
-    </row>
     <row r="93">
-      <c r="A93" s="4" t="str">
+      <c r="A93" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="1">
         <v>2013.0</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M93" s="1">
+        <v>180</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N93" s="1">
         <v>64.7</v>
       </c>
     </row>
     <row r="94" ht="27.0" customHeight="1">
-      <c r="A94" s="4" t="str">
-        <f t="shared" ref="A94:A95" si="21">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
+      <c r="A94" s="3" t="str">
+        <f t="shared" ref="A94:A95" si="20">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
         <v>WSD-TM</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="1">
+        <v>182</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="1">
         <v>2018.0</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M94" s="1">
+        <v>24</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N94" s="1">
         <v>65.3</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="A95" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>WSD-TM</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="B95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="1">
+        <v>182</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="1">
         <v>2018.0</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M95" s="1">
+        <v>24</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N95" s="1">
         <v>69.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$R$95">
-    <filterColumn colId="9">
-      <filters>
+  <autoFilter ref="$A$1:$S$96">
+    <filterColumn colId="10">
+      <filters blank="1">
         <filter val="se2-aw-v2"/>
         <filter val="se2-aw"/>
         <filter val="se13-aw-v2"/>
         <filter val="se13-aw"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters>
+    <filterColumn colId="8">
+      <filters blank="1">
         <filter val="BabelNet"/>
         <filter val="WordNet"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
-    <hyperlink r:id="rId2" ref="D6"/>
-    <hyperlink r:id="rId3" ref="D7"/>
-    <hyperlink r:id="rId4" ref="D15"/>
-    <hyperlink r:id="rId5" ref="D16"/>
-    <hyperlink r:id="rId6" ref="D17"/>
-    <hyperlink r:id="rId7" ref="D18"/>
-    <hyperlink r:id="rId8" ref="D23"/>
-    <hyperlink r:id="rId9" ref="D28"/>
-    <hyperlink r:id="rId10" ref="D29"/>
-    <hyperlink r:id="rId11" ref="D30"/>
-    <hyperlink r:id="rId12" ref="D31"/>
-    <hyperlink r:id="rId13" ref="D32"/>
-    <hyperlink r:id="rId14" ref="D33"/>
-    <hyperlink r:id="rId15" ref="D39"/>
-    <hyperlink r:id="rId16" ref="D40"/>
-    <hyperlink r:id="rId17" ref="D41"/>
-    <hyperlink r:id="rId18" ref="D42"/>
-    <hyperlink r:id="rId19" ref="D43"/>
-    <hyperlink r:id="rId20" ref="D44"/>
-    <hyperlink r:id="rId21" ref="D45"/>
-    <hyperlink r:id="rId22" ref="D46"/>
-    <hyperlink r:id="rId23" ref="D47"/>
-    <hyperlink r:id="rId24" ref="D48"/>
-    <hyperlink r:id="rId25" ref="D51"/>
-    <hyperlink r:id="rId26" ref="D58"/>
-    <hyperlink r:id="rId27" ref="D59"/>
-    <hyperlink r:id="rId28" ref="D62"/>
-    <hyperlink r:id="rId29" ref="D63"/>
-    <hyperlink r:id="rId30" ref="D66"/>
-    <hyperlink r:id="rId31" ref="D67"/>
-    <hyperlink r:id="rId32" ref="D68"/>
-    <hyperlink r:id="rId33" ref="D69"/>
-    <hyperlink r:id="rId34" ref="D73"/>
-    <hyperlink r:id="rId35" ref="D79"/>
-    <hyperlink r:id="rId36" ref="D80"/>
-    <hyperlink r:id="rId37" ref="D81"/>
-    <hyperlink r:id="rId38" ref="D82"/>
-    <hyperlink r:id="rId39" ref="D83"/>
-    <hyperlink r:id="rId40" ref="D89"/>
-    <hyperlink r:id="rId41" ref="D90"/>
-    <hyperlink r:id="rId42" ref="D91"/>
-    <hyperlink r:id="rId43" ref="D92"/>
-    <hyperlink r:id="rId44" ref="D93"/>
+    <hyperlink r:id="rId1" ref="E4"/>
+    <hyperlink r:id="rId2" ref="E6"/>
+    <hyperlink r:id="rId3" ref="E7"/>
+    <hyperlink r:id="rId4" ref="E15"/>
+    <hyperlink r:id="rId5" ref="E16"/>
+    <hyperlink r:id="rId6" ref="E17"/>
+    <hyperlink r:id="rId7" ref="E18"/>
+    <hyperlink r:id="rId8" ref="E23"/>
+    <hyperlink r:id="rId9" ref="E28"/>
+    <hyperlink r:id="rId10" ref="E29"/>
+    <hyperlink r:id="rId11" ref="E30"/>
+    <hyperlink r:id="rId12" ref="E31"/>
+    <hyperlink r:id="rId13" ref="E32"/>
+    <hyperlink r:id="rId14" ref="E33"/>
+    <hyperlink r:id="rId15" ref="E39"/>
+    <hyperlink r:id="rId16" ref="E40"/>
+    <hyperlink r:id="rId17" ref="E41"/>
+    <hyperlink r:id="rId18" ref="E42"/>
+    <hyperlink r:id="rId19" ref="E43"/>
+    <hyperlink r:id="rId20" ref="E44"/>
+    <hyperlink r:id="rId21" ref="E45"/>
+    <hyperlink r:id="rId22" ref="E46"/>
+    <hyperlink r:id="rId23" ref="E47"/>
+    <hyperlink r:id="rId24" ref="E48"/>
+    <hyperlink r:id="rId25" ref="E51"/>
+    <hyperlink r:id="rId26" ref="E58"/>
+    <hyperlink r:id="rId27" ref="E59"/>
+    <hyperlink r:id="rId28" ref="E62"/>
+    <hyperlink r:id="rId29" ref="E63"/>
+    <hyperlink r:id="rId30" ref="E66"/>
+    <hyperlink r:id="rId31" ref="E67"/>
+    <hyperlink r:id="rId32" ref="E68"/>
+    <hyperlink r:id="rId33" ref="E69"/>
+    <hyperlink r:id="rId34" ref="E73"/>
+    <hyperlink r:id="rId35" ref="E79"/>
+    <hyperlink r:id="rId36" ref="E80"/>
+    <hyperlink r:id="rId37" ref="E81"/>
+    <hyperlink r:id="rId38" ref="E82"/>
+    <hyperlink r:id="rId39" ref="E83"/>
+    <hyperlink r:id="rId40" ref="E89"/>
+    <hyperlink r:id="rId41" ref="E90"/>
+    <hyperlink r:id="rId42" ref="E91"/>
+    <hyperlink r:id="rId43" ref="E92"/>
+    <hyperlink r:id="rId44" ref="E93"/>
   </hyperlinks>
   <drawing r:id="rId45"/>
 </worksheet>
@@ -4058,39 +4259,39 @@
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/K15-1037","1million")</f>
         <v>1million</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P15-1173","AutoExtend")</f>
         <v>AutoExtend</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1020","AVE-Antwerp")</f>
         <v>AVE-Antwerp</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f>COUNTBLANK(C2:C22)</f>
@@ -4101,253 +4302,253 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/K16-1006","Context2vec")</f>
         <v>Context2vec</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J17-1002","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P16-1085","Iacobacci")</f>
         <v>Iacobacci</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P10-4014","It makes sense")</f>
         <v>It makes sense</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>10.0</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
         <v>LSTM</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>11.0</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/AIJ_2016_CamachoColladosetal.pdf","Nasari")</f>
         <v>Nasari</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>12.0</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
         <v>Popov</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>14.0</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1031","SMUaw")</f>
         <v>SMUaw</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
         <v>SUP WSD</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="3" t="str">
         <f>HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD_TM")</f>
         <v>WSD_TM</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="6"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="26">
-      <c r="B26" s="6"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="29">
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="7"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="6"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="42">
-      <c r="B42" s="6"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43">
-      <c r="B43" s="6"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44">
-      <c r="B44" s="6"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45">
-      <c r="B45" s="3" t="str">
+      <c r="B45" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="7"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="4" t="str">
+      <c r="B47" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="4" t="str">
+      <c r="B48" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="4" t="str">
+      <c r="B49" s="3" t="str">
         <f>HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD_TM")</f>
         <v>WSD_TM</v>
       </c>
@@ -4375,7 +4576,7 @@
         <v>0.6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4386,7 +4587,7 @@
         <v>0.62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4397,7 +4598,7 @@
         <v>0.7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4621,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -4428,7 +4629,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4652,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -4459,7 +4660,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -4467,7 +4668,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -4475,7 +4676,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -4483,7 +4684,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -4491,7 +4692,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -4499,7 +4700,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -4507,7 +4708,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4530,26 +4731,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -4558,22 +4759,22 @@
         <v>1million</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -4582,22 +4783,22 @@
         <v>AutoExtend</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -4606,22 +4807,22 @@
         <v>AVE-Antwerp</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -4630,22 +4831,22 @@
         <v>Babelfy</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -4654,22 +4855,22 @@
         <v>Babelfy</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -4678,19 +4879,19 @@
         <v>Context2vec</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -4699,22 +4900,22 @@
         <v>context2vec</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -4723,19 +4924,19 @@
         <v>DFKI</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -4744,22 +4945,22 @@
         <v>Game-theoretic</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -4768,22 +4969,22 @@
         <v>Game-theoretic</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -4792,19 +4993,19 @@
         <v>Iacobacci</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -4813,19 +5014,19 @@
         <v>It makes sense</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -4906,55 +5107,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="2" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="2" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="2" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -4962,7 +5163,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -4970,7 +5171,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
@@ -4978,7 +5179,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -4986,50 +5187,50 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="2" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S14-1005","SUDOKU")</f>
         <v>SUDOKU</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="2" t="str">
         <f>HYPERLINK("https://arxiv.org/pdf/1606.07711.pdf","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="str">
+      <c r="A18" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P10-1154","Knowledge-rich WSD")</f>
         <v>Knowledge-rich WSD</v>
       </c>
@@ -5039,7 +5240,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -5047,7 +5248,7 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -5055,38 +5256,38 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="str">
+      <c r="A25" s="3" t="str">
         <f>HYPERLINK("http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.308.1754&amp;rep=rep1&amp;type=pdf","Connectivity")</f>
         <v>Connectivity</v>
       </c>
@@ -5096,7 +5297,7 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
@@ -5104,7 +5305,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
@@ -5112,31 +5313,31 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5159,7 +5360,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/trends/WSD state of the art.xlsx
+++ b/trends/WSD state of the art.xlsx
@@ -25,100 +25,100 @@
     <t>described</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>in_competition</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t>score reported in</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>sense_repository</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Text coherence</t>
+  </si>
+  <si>
+    <t>Word order</t>
+  </si>
+  <si>
+    <t>IMS + Word2Vec</t>
+  </si>
+  <si>
+    <t>Multilingual</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>n,v,a,r</t>
+  </si>
+  <si>
+    <t>WordNet</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+  </si>
+  <si>
+    <t>se7-aw</t>
+  </si>
+  <si>
+    <t>IMS (original)</t>
+  </si>
+  <si>
+    <t>se3-aw</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>IMS-1M</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/K15-1037/k15-1037.bib</t>
+  </si>
+  <si>
     <t>to go</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>in_competition</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>bibtex</t>
-  </si>
-  <si>
-    <t>score reported in</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>sense_repository</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Text coherence</t>
-  </si>
-  <si>
-    <t>Word order</t>
-  </si>
-  <si>
-    <t>IMS + Word2Vec</t>
-  </si>
-  <si>
-    <t>Multilingual</t>
-  </si>
-  <si>
-    <t>n,v,a,r</t>
-  </si>
-  <si>
-    <t>WordNet</t>
-  </si>
-  <si>
-    <t>Rank 1</t>
-  </si>
-  <si>
-    <t>se7-aw</t>
-  </si>
-  <si>
-    <t>IMS (original)</t>
-  </si>
-  <si>
-    <t>se3-aw</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>IMS-1M</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/K15-1037/k15-1037.bib</t>
   </si>
   <si>
     <t>paper</t>
@@ -221,6 +221,9 @@
     <t>uns</t>
   </si>
   <si>
+    <t>how to name systems</t>
+  </si>
+  <si>
     <t>WSD-games</t>
   </si>
   <si>
@@ -269,12 +272,18 @@
     <t>SemCor + OMSTI</t>
   </si>
   <si>
-    <t>how to name systems</t>
-  </si>
-  <si>
     <t>rank 1 system</t>
   </si>
   <si>
+    <t>Google-LSTM</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/C16-1130/c16-1130.bib</t>
+  </si>
+  <si>
+    <t>LP T:SemCor, U:1K</t>
+  </si>
+  <si>
     <t>higher than competition or close to</t>
   </si>
   <si>
@@ -296,27 +305,42 @@
     <t>all rag results are either from the paper or from raganato et al. (2017)</t>
   </si>
   <si>
-    <t>Google-LSTM</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/C16-1130/c16-1130.bib</t>
-  </si>
-  <si>
-    <t>LP T:SemCor, U:1K</t>
-  </si>
-  <si>
     <t>LP T:OMSTI, U:1K</t>
   </si>
   <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
     <t>T:SemCor</t>
   </si>
   <si>
+    <t>Training data</t>
+  </si>
+  <si>
+    <t>Domains_Supersenses</t>
+  </si>
+  <si>
     <t>se15-aw</t>
   </si>
   <si>
     <t>LP T:SemCor, U:OMSTI</t>
   </si>
   <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SC, DSO, MUN</t>
+  </si>
+  <si>
     <t>Nasari</t>
   </si>
   <si>
@@ -326,60 +350,105 @@
     <t>lexical</t>
   </si>
   <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Google News</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>lexical +IMS</t>
   </si>
   <si>
+    <t>Dense subgraph</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>SC, MUN</t>
+  </si>
+  <si>
+    <t>Multi-Objective Optimization</t>
+  </si>
+  <si>
     <t>lexical + IMS</t>
   </si>
   <si>
+    <t>Attentive Bidirectional LSTM</t>
+  </si>
+  <si>
+    <t>SVM + embeddings</t>
+  </si>
+  <si>
+    <t>ukWaC</t>
+  </si>
+  <si>
+    <t>n,v,ar</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>Game-theoric</t>
+  </si>
+  <si>
+    <t>BLSTM + att</t>
+  </si>
+  <si>
+    <t>BLSTM + att + LEX</t>
+  </si>
+  <si>
+    <t>PPR</t>
+  </si>
+  <si>
+    <t>Neural-Sequence</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1120/d17-1120.bib</t>
+  </si>
+  <si>
+    <t>BLSTM + att + LEX + POS</t>
+  </si>
+  <si>
+    <t>SMUaw</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
+  </si>
+  <si>
+    <t>SupWSD</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb (SemCor + OMSTI)</t>
+  </si>
+  <si>
+    <t>se3-aw-rag</t>
+  </si>
+  <si>
+    <t>se7-aw-rag</t>
+  </si>
+  <si>
+    <t>se15-aw-rag</t>
+  </si>
+  <si>
     <t>WSD-RNN</t>
   </si>
   <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/R17-2004/r17-2004.bib</t>
   </si>
   <si>
-    <t>BLSTM + att</t>
-  </si>
-  <si>
-    <t>BLSTM + att + LEX</t>
-  </si>
-  <si>
-    <t>Neural-Sequence</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1120/d17-1120.bib</t>
-  </si>
-  <si>
-    <t>BLSTM + att + LEX + POS</t>
-  </si>
-  <si>
-    <t>SMUaw</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
-  </si>
-  <si>
-    <t>SupWSD</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb SemCor + OMSTI</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb (SemCor + OMSTI)</t>
-  </si>
-  <si>
-    <t>se3-aw-rag</t>
-  </si>
-  <si>
-    <t>se7-aw-rag</t>
-  </si>
-  <si>
-    <t>se15-aw-rag</t>
-  </si>
-  <si>
     <t>Train-O-Matic Wiki</t>
   </si>
   <si>
@@ -395,13 +464,10 @@
     <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1008/d17-1008.bib</t>
   </si>
   <si>
-    <t>UKB</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
-  </si>
-  <si>
     <t>PPRw2w</t>
+  </si>
+  <si>
+    <t>static</t>
   </si>
   <si>
     <t>densest subgraph heuristic which selects high-coherence semantic interpretations.</t>
@@ -416,28 +482,10 @@
 previously-computed semantic signatures. </t>
   </si>
   <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Training data</t>
-  </si>
-  <si>
     <t>similar to Babelfy, but in a continuous setting</t>
   </si>
   <si>
-    <t>Domains_Supersenses</t>
-  </si>
-  <si>
-    <t>gloss</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
     <t>context independent ranking of senses</t>
-  </si>
-  <si>
-    <t>PPR</t>
   </si>
   <si>
     <t>closely related to MFS</t>
@@ -456,45 +504,24 @@
 nodes</t>
   </si>
   <si>
-    <t>No</t>
+    <t>UKB-optimal</t>
   </si>
   <si>
     <t xml:space="preserve"> word-to-word -&gt; run ppr separately for each target word (no interaction with other target words)</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>SC, DSO, MUN</t>
-  </si>
-  <si>
-    <t>Autoencoder</t>
-  </si>
-  <si>
-    <t>Google News</t>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/W18-2505/w18-2505.bib</t>
+  </si>
+  <si>
+    <t>context2vec already used knn</t>
   </si>
   <si>
     <t>iteratively updating graph when disambiguating (not with great results)</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Dense subgraph</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>terminology</t>
   </si>
   <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>SC, MUN</t>
-  </si>
-  <si>
     <t>word</t>
   </si>
   <si>
@@ -507,79 +534,28 @@
     <t>strategy</t>
   </si>
   <si>
+    <t>UMCC-DLSI</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/S13-2042/s13-2042.bib</t>
+  </si>
+  <si>
     <t>building matrices to achieve textual coherence (some words are more relevant than other for disambiguation)</t>
   </si>
   <si>
-    <t>Multi-Objective Optimization</t>
-  </si>
-  <si>
-    <t>Attentive Bidirectional LSTM</t>
-  </si>
-  <si>
-    <t>SVM + embeddings</t>
-  </si>
-  <si>
-    <t>ukWaC</t>
+    <t>RUN-2</t>
   </si>
   <si>
     <t>automatic mapping WordNet and Wikipedia</t>
   </si>
   <si>
-    <t>n,v,ar</t>
+    <t>WSD-TM</t>
   </si>
   <si>
     <t>noun relations are transferred from Wikipedia to WordNet</t>
   </si>
   <si>
     <t>WSD improves (on nouns) when doing this (e.g. more relatedness edges is better)</t>
-  </si>
-  <si>
-    <t>degee centrality</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>can we add cross-pos relations automatically?</t>
-  </si>
-  <si>
-    <t>Game-theoric</t>
-  </si>
-  <si>
-    <t>morphological normalization results</t>
-  </si>
-  <si>
-    <t>UKB-optimal</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/W18-2505/w18-2505.bib</t>
-  </si>
-  <si>
-    <t>first sense way better connected than other senses</t>
-  </si>
-  <si>
-    <t>Degree and PageRank good indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>normalization and gloss relations extremely important</t>
-  </si>
-  <si>
-    <t>Degree or PR indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>also use sense rank of indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>UMCC-DLSI</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/S13-2042/s13-2042.bib</t>
-  </si>
-  <si>
-    <t>RUN-2</t>
-  </si>
-  <si>
-    <t>WSD-TM</t>
   </si>
   <si>
     <t>@paper{AAAI1817415,
@@ -593,7 +569,31 @@
 }</t>
   </si>
   <si>
-    <t>context2vec already used knn</t>
+    <t>degee centrality</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>can we add cross-pos relations automatically?</t>
+  </si>
+  <si>
+    <t>morphological normalization results</t>
+  </si>
+  <si>
+    <t>first sense way better connected than other senses</t>
+  </si>
+  <si>
+    <t>Degree and PageRank good indication of hunger for knowledge</t>
+  </si>
+  <si>
+    <t>normalization and gloss relations extremely important</t>
+  </si>
+  <si>
+    <t>Degree or PR indication of hunger for knowledge</t>
+  </si>
+  <si>
+    <t>also use sense rank of indication of hunger for knowledge</t>
   </si>
 </sst>
 </file>
@@ -608,15 +608,15 @@
     </font>
     <font/>
     <font>
+      <b/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <u/>
@@ -655,17 +655,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -726,12 +726,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
+    <col customWidth="1" min="2" max="2" width="12.29"/>
+    <col customWidth="1" min="3" max="3" width="8.86"/>
+    <col customWidth="1" min="4" max="4" width="13.86"/>
+    <col customWidth="1" min="5" max="6" width="10.0"/>
     <col customWidth="1" min="7" max="7" width="7.14"/>
     <col customWidth="1" min="8" max="8" width="8.29"/>
     <col customWidth="1" min="9" max="9" width="10.29"/>
-    <col customWidth="1" min="10" max="10" width="33.57"/>
+    <col customWidth="1" min="10" max="10" width="17.86"/>
     <col customWidth="1" min="12" max="12" width="7.86"/>
     <col customWidth="1" min="13" max="13" width="6.71"/>
     <col customWidth="1" min="14" max="14" width="8.14"/>
@@ -742,66 +744,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" hidden="1">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A4" si="1">HYPERLINK("http://aclweb.org/anthology/K15-1037","1million")</f>
         <v>1million</v>
       </c>
@@ -812,16 +814,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N2" s="1">
         <v>59.1</v>
@@ -830,11 +832,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1million</v>
       </c>
@@ -845,16 +847,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="N3" s="1">
         <v>67.6</v>
@@ -863,25 +865,25 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1million</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -890,10 +892,10 @@
         <v>2015.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
@@ -901,18 +903,18 @@
       <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
         <v>68.0</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" hidden="1">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="3" t="str">
         <f t="shared" ref="A5:A6" si="2">HYPERLINK("http://aclweb.org/anthology/P15-1173","AutoExtend")</f>
         <v>AutoExtend</v>
       </c>
@@ -923,16 +925,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1">
         <v>73.6</v>
@@ -940,24 +942,24 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>AutoExtend</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -967,10 +969,10 @@
         <v>2015.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
@@ -978,30 +980,30 @@
       <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <v>66.5</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1020","AVE-Antwerp")</f>
         <v>AVE-Antwerp</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1014,17 +1016,24 @@
         <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="1">
+      <c r="L7" s="1">
         <v>63.6</v>
       </c>
+      <c r="M7" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="N7">
+        <f>(2 * (L7*M7)) / (L7+M7)</f>
+        <v>63.6</v>
+      </c>
     </row>
     <row r="8" hidden="1">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="3" t="str">
         <f t="shared" ref="A8:A10" si="3">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>44</v>
@@ -1049,14 +1058,14 @@
         <v>68.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" hidden="1">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Babelfy</v>
       </c>
@@ -1081,14 +1090,14 @@
         <v>69.2</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" hidden="1">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Babelfy</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>47</v>
@@ -1113,22 +1122,22 @@
         <v>62.7</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/Q14-1019","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -1143,10 +1152,10 @@
         <v>2014.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>50</v>
@@ -1156,15 +1165,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="3" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>42</v>
@@ -1182,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>46</v>
@@ -1191,22 +1200,22 @@
         <v>65.9</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/Q14-1019","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -1221,10 +1230,10 @@
         <v>2014.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>51</v>
@@ -1234,7 +1243,7 @@
       </c>
     </row>
     <row r="14" hidden="1">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/K16-1006","Context2vec")</f>
         <v>Context2vec</v>
       </c>
@@ -1245,16 +1254,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" s="1">
         <v>72.8</v>
@@ -1264,20 +1273,20 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="3" t="str">
         <f t="shared" ref="A15:A18" si="4">HYPERLINK("http://www.aclweb.org/anthology/K16-1006","context2vec")</f>
         <v>context2vec</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1287,10 +1296,10 @@
         <v>2016.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>55</v>
@@ -1306,20 +1315,20 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="str">
+      <c r="A16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1329,10 +1338,10 @@
         <v>2016.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>55</v>
@@ -1348,20 +1357,20 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="str">
+      <c r="A17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1371,10 +1380,10 @@
         <v>2016.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
@@ -1390,20 +1399,20 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="str">
+      <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>context2vec</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1413,10 +1422,10 @@
         <v>2016.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>56</v>
@@ -1432,7 +1441,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" hidden="1">
-      <c r="A19" s="2" t="str">
+      <c r="A19" s="3" t="str">
         <f t="shared" ref="A19:A23" si="5">HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>57</v>
@@ -1458,14 +1467,14 @@
         <v>68.8</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" hidden="1">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="3" t="str">
         <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>43</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -1489,14 +1498,14 @@
         <v>68.8</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" hidden="1">
-      <c r="A21" s="2" t="str">
+      <c r="A21" s="3" t="str">
         <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>57</v>
@@ -1522,14 +1531,14 @@
         <v>66.0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" hidden="1">
-      <c r="A22" s="2" t="str">
+      <c r="A22" s="3" t="str">
         <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -1553,27 +1562,27 @@
         <v>66.0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="str">
+      <c r="A23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>DFKI</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1586,7 +1595,7 @@
         <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>57</v>
@@ -1598,14 +1607,14 @@
         <v>72.8</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" hidden="1">
-      <c r="A24" s="2" t="str">
+      <c r="A24" s="3" t="str">
         <f t="shared" ref="A24:A27" si="6">HYPERLINK("https://arxiv.org/pdf/1606.07711.pdf","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
@@ -1619,23 +1628,23 @@
         <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24" s="1">
         <v>56.5</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" hidden="1">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
@@ -1649,23 +1658,23 @@
         <v>60</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="1">
         <v>43.3</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" hidden="1">
-      <c r="A26" s="2" t="str">
+      <c r="A26" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
@@ -1676,26 +1685,26 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N26" s="1">
         <v>64.7</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" hidden="1">
-      <c r="A27" s="2" t="str">
+      <c r="A27" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Game-theoretic</v>
       </c>
@@ -1706,40 +1715,40 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" s="1">
         <v>59.1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="str">
+      <c r="A28" s="3" t="str">
         <f t="shared" ref="A28:A29" si="7">HYPERLINK("http://aclweb.org/anthology/J17-1002","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
@@ -1748,10 +1757,10 @@
         <v>2017.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>61</v>
@@ -1763,25 +1772,25 @@
         <v>66.0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="str">
+      <c r="A29" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Game-theoretic</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>33</v>
@@ -1793,10 +1802,10 @@
         <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>46</v>
@@ -1805,25 +1814,25 @@
         <v>70.8</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="str">
+      <c r="A30" s="3" t="str">
         <f t="shared" ref="A30:A43" si="8">HYPERLINK("http://aclweb.org/anthology/P16-1085","Iacobacci")</f>
         <v>Iacobacci</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>49</v>
@@ -1832,13 +1841,13 @@
         <v>2016.0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>51</v>
@@ -1851,21 +1860,21 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="str">
+      <c r="A31" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
@@ -1874,13 +1883,13 @@
         <v>2016.0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>35</v>
@@ -1891,25 +1900,25 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="str">
+      <c r="A32" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>49</v>
@@ -1918,13 +1927,13 @@
         <v>2016.0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>50</v>
@@ -1937,21 +1946,21 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="str">
+      <c r="A33" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>49</v>
@@ -1960,13 +1969,13 @@
         <v>2016.0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>51</v>
@@ -1979,7 +1988,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" hidden="1">
-      <c r="A34" s="2" t="str">
+      <c r="A34" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
@@ -1990,16 +1999,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N34" s="1">
         <v>68.2</v>
@@ -2007,11 +2016,11 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" hidden="1">
-      <c r="A35" s="2" t="str">
+      <c r="A35" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
@@ -2022,13 +2031,13 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>47</v>
@@ -2039,11 +2048,11 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" hidden="1">
-      <c r="A36" s="2" t="str">
+      <c r="A36" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
@@ -2054,16 +2063,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N36" s="1">
         <v>77.7</v>
@@ -2071,11 +2080,11 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" hidden="1">
-      <c r="A37" s="2" t="str">
+      <c r="A37" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
@@ -2086,13 +2095,13 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>44</v>
@@ -2103,11 +2112,11 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" hidden="1">
-      <c r="A38" s="2" t="str">
+      <c r="A38" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
@@ -2118,16 +2127,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N38" s="1">
         <v>59.1</v>
@@ -2135,25 +2144,25 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="str">
+      <c r="A39" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>49</v>
@@ -2162,13 +2171,13 @@
         <v>2016.0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>51</v>
@@ -2181,21 +2190,21 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="str">
+      <c r="A40" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
@@ -2204,13 +2213,13 @@
         <v>2016.0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>50</v>
@@ -2223,21 +2232,21 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="str">
+      <c r="A41" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>49</v>
@@ -2246,13 +2255,13 @@
         <v>2016.0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>50</v>
@@ -2265,21 +2274,21 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="str">
+      <c r="A42" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
@@ -2288,13 +2297,13 @@
         <v>2016.0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>50</v>
@@ -2307,21 +2316,21 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="str">
+      <c r="A43" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Iacobacci</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
@@ -2330,13 +2339,13 @@
         <v>2016.0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>51</v>
@@ -2349,21 +2358,21 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="str">
+      <c r="A44" s="3" t="str">
         <f t="shared" ref="A44:A50" si="9">HYPERLINK("http://aclweb.org/anthology/P10-4014","It makes sense")</f>
         <v>It makes sense</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>49</v>
@@ -2372,13 +2381,13 @@
         <v>2010.0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>51</v>
@@ -2391,21 +2400,21 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="str">
+      <c r="A45" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>49</v>
@@ -2414,10 +2423,10 @@
         <v>2010.0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>55</v>
@@ -2433,21 +2442,21 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="str">
+      <c r="A46" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -2456,10 +2465,10 @@
         <v>2010.0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>55</v>
@@ -2475,21 +2484,21 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="str">
+      <c r="A47" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>33</v>
@@ -2498,10 +2507,10 @@
         <v>2010.0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>80</v>
@@ -2509,7 +2518,7 @@
       <c r="K47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="1">
+      <c r="M47" s="1">
         <v>69.0</v>
       </c>
       <c r="O47" s="1"/>
@@ -2517,21 +2526,21 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="str">
+      <c r="A48" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>49</v>
@@ -2540,13 +2549,13 @@
         <v>2010.0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>50</v>
@@ -2559,7 +2568,7 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" hidden="1">
-      <c r="A49" s="2" t="str">
+      <c r="A49" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
@@ -2571,13 +2580,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N49" s="1">
         <v>67.6</v>
@@ -2587,7 +2596,7 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" hidden="1">
-      <c r="A50" s="2" t="str">
+      <c r="A50" s="3" t="str">
         <f t="shared" si="9"/>
         <v>It makes sense</v>
       </c>
@@ -2599,13 +2608,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N50" s="1">
         <v>59.1</v>
@@ -2615,21 +2624,21 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="str">
-        <f t="shared" ref="A51:A58" si="10">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
+      <c r="A51" s="3" t="str">
+        <f t="shared" ref="A51:A57" si="10">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
         <v>LSTM</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>33</v>
@@ -2638,13 +2647,13 @@
         <v>2016.0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>46</v>
@@ -2655,11 +2664,11 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" hidden="1">
-      <c r="A52" s="2" t="str">
+      <c r="A52" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2670,16 +2679,16 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N52" s="1">
         <v>71.8</v>
@@ -2687,11 +2696,11 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" hidden="1">
-      <c r="A53" s="2" t="str">
+      <c r="A53" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2702,16 +2711,16 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N53" s="1">
         <v>79.9</v>
@@ -2719,11 +2728,11 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" hidden="1">
-      <c r="A54" s="2" t="str">
+      <c r="A54" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2734,13 +2743,13 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>47</v>
@@ -2751,11 +2760,11 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" hidden="1">
-      <c r="A55" s="2" t="str">
+      <c r="A55" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2766,16 +2775,16 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N55" s="1">
         <v>72.6</v>
@@ -2783,11 +2792,11 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" hidden="1">
-      <c r="A56" s="2" t="str">
+      <c r="A56" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2798,13 +2807,13 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>44</v>
@@ -2815,11 +2824,11 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" hidden="1">
-      <c r="A57" s="2" t="str">
+      <c r="A57" s="3" t="str">
         <f t="shared" si="10"/>
         <v>LSTM</v>
       </c>
@@ -2830,16 +2839,16 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N57" s="1">
         <v>63.7</v>
@@ -2847,69 +2856,61 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>LSTM</v>
+      <c r="A58" s="3" t="str">
+        <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
+        <v>UKB</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G58" s="1">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N58" s="1">
-        <v>74.4</v>
-      </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1" t="s">
-        <v>1</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="str">
+      <c r="A59" s="3" t="str">
         <f t="shared" ref="A59:A62" si="11">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/AIJ_2016_CamachoColladosetal.pdf","Nasari")</f>
         <v>Nasari</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>33</v>
@@ -2921,10 +2922,10 @@
         <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>46</v>
@@ -2936,11 +2937,11 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="S59" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" hidden="1">
-      <c r="A60" s="2" t="str">
+      <c r="A60" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
@@ -2954,10 +2955,10 @@
         <v>43</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>47</v>
@@ -2969,11 +2970,11 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="S60" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" hidden="1">
-      <c r="A61" s="2" t="str">
+      <c r="A61" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
@@ -2987,10 +2988,10 @@
         <v>43</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>47</v>
@@ -3002,25 +3003,25 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="S61" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="str">
+      <c r="A62" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Nasari</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>33</v>
@@ -3032,10 +3033,10 @@
         <v>43</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>46</v>
@@ -3047,50 +3048,50 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="S62" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="str">
-        <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
-        <v>Popov</v>
+        <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
+        <v>UKB</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G63" s="1">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N63" s="1">
-        <v>70.11</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="64" hidden="1">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="3" t="str">
         <f t="shared" ref="A64:A65" si="12">HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/EMNLP_2017_Raganatoetal.pdf","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
@@ -3101,16 +3102,16 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N64" s="1">
         <v>70.2</v>
@@ -3119,7 +3120,7 @@
       <c r="P64" s="1"/>
     </row>
     <row r="65" hidden="1">
-      <c r="A65" s="2" t="str">
+      <c r="A65" s="3" t="str">
         <f t="shared" si="12"/>
         <v>Raganato_et_al_2017</v>
       </c>
@@ -3130,16 +3131,16 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N65" s="1">
         <v>72.4</v>
@@ -3148,21 +3149,21 @@
       <c r="P65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="str">
-        <f t="shared" ref="A66:A67" si="13">HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
+      <c r="A66" s="3" t="str">
+        <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>33</v>
@@ -3171,13 +3172,13 @@
         <v>2017.0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>51</v>
@@ -3189,62 +3190,65 @@
       <c r="P66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>Raganato_et_al_2017</v>
+      <c r="A67" s="3" t="str">
+        <f>HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
+        <v>LSTM</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G67" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N67" s="1">
-        <v>72.0</v>
+        <v>74.4</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
+      <c r="Q67" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="str">
+      <c r="A68" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1031","SMUaw")</f>
         <v>SMUaw</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>33</v>
@@ -3256,31 +3260,38 @@
         <v>41</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="1">
+      <c r="L68" s="1">
         <v>69.0</v>
       </c>
+      <c r="M68" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="N68">
+        <f>(2 * (L68*M68)) / (L68+M68)</f>
+        <v>69</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="str">
-        <f t="shared" ref="A69:A73" si="14">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
+      <c r="A69" s="4" t="str">
+        <f t="shared" ref="A69:A72" si="13">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
         <v>SUP WSD</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>33</v>
@@ -3289,13 +3300,13 @@
         <v>2017.0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>51</v>
@@ -3305,8 +3316,8 @@
       </c>
     </row>
     <row r="70" hidden="1">
-      <c r="A70" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="13"/>
         <v>SUP WSD</v>
       </c>
       <c r="B70" s="1"/>
@@ -3318,24 +3329,24 @@
         <v>2017.0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N70" s="1">
         <v>70.8</v>
       </c>
     </row>
     <row r="71" hidden="1">
-      <c r="A71" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="13"/>
         <v>SUP WSD</v>
       </c>
       <c r="B71" s="1"/>
@@ -3347,24 +3358,24 @@
         <v>2017.0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="N71" s="1">
         <v>64.2</v>
       </c>
     </row>
     <row r="72" hidden="1">
-      <c r="A72" s="3" t="str">
-        <f t="shared" si="14"/>
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="13"/>
         <v>SUP WSD</v>
       </c>
       <c r="B72" s="1"/>
@@ -3376,37 +3387,37 @@
         <v>2017.0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N72" s="1">
         <v>71.5</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>SUP WSD</v>
+      <c r="A73" s="4" t="str">
+        <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
+        <v>Popov</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>33</v>
@@ -3415,24 +3426,24 @@
         <v>2017.0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N73" s="1">
-        <v>73.8</v>
+        <v>70.11</v>
       </c>
     </row>
     <row r="74" hidden="1">
-      <c r="A74" s="3" t="str">
-        <f t="shared" ref="A74:A76" si="15">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+      <c r="A74" s="4" t="str">
+        <f t="shared" ref="A74:A76" si="14">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="B74" s="1"/>
@@ -3444,24 +3455,24 @@
         <v>2017.0</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N74" s="1">
         <v>68.8</v>
       </c>
     </row>
     <row r="75" hidden="1">
-      <c r="A75" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="A75" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>Train-O-Matic</v>
       </c>
       <c r="B75" s="1"/>
@@ -3473,24 +3484,24 @@
         <v>2017.0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="N75" s="1">
         <v>59.8</v>
       </c>
     </row>
     <row r="76" hidden="1">
-      <c r="A76" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="A76" s="4" t="str">
+        <f t="shared" si="14"/>
         <v>Train-O-Matic</v>
       </c>
       <c r="B76" s="1"/>
@@ -3502,24 +3513,24 @@
         <v>2017.0</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N76" s="1">
         <v>67.4</v>
       </c>
     </row>
     <row r="77" hidden="1">
-      <c r="A77" s="3" t="str">
-        <f t="shared" ref="A77:A78" si="16">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
+      <c r="A77" s="4" t="str">
+        <f t="shared" ref="A77:A78" si="15">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
         <v>Eurosense</v>
       </c>
       <c r="B77" s="1"/>
@@ -3531,13 +3542,13 @@
         <v>2017.0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>46</v>
@@ -3547,8 +3558,8 @@
       </c>
     </row>
     <row r="78" hidden="1">
-      <c r="A78" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="A78" s="4" t="str">
+        <f t="shared" si="15"/>
         <v>Eurosense</v>
       </c>
       <c r="B78" s="1"/>
@@ -3560,37 +3571,37 @@
         <v>2017.0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N78" s="1">
         <v>69.5</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="str">
-        <f t="shared" ref="A79:A80" si="17">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+      <c r="A79" s="4" t="str">
+        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>33</v>
@@ -3599,13 +3610,13 @@
         <v>2017.0</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>51</v>
@@ -3616,20 +3627,20 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Train-O-Matic</v>
+        <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
+        <v>Raganato_et_al_2017</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>33</v>
@@ -3638,37 +3649,39 @@
         <v>2017.0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N80" s="1">
-        <v>70.5</v>
-      </c>
+        <v>72.0</v>
+      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="str">
-        <f t="shared" ref="A81:A90" si="18">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
+      <c r="A81" s="3" t="str">
+        <f t="shared" ref="A81:A88" si="16">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>33</v>
@@ -3677,13 +3690,13 @@
         <v>2014.0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>35</v>
@@ -3693,21 +3706,21 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A82" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>49</v>
@@ -3716,10 +3729,10 @@
         <v>2014.0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>51</v>
@@ -3729,21 +3742,21 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A83" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>49</v>
@@ -3752,13 +3765,13 @@
         <v>2014.0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>51</v>
@@ -3768,8 +3781,8 @@
       </c>
     </row>
     <row r="84" hidden="1">
-      <c r="A84" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A84" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B84" s="1"/>
@@ -3779,16 +3792,16 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N84" s="1">
         <v>71.8</v>
@@ -3798,8 +3811,8 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" hidden="1">
-      <c r="A85" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A85" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B85" s="1"/>
@@ -3809,16 +3822,16 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N85" s="1">
         <v>57.9</v>
@@ -3828,8 +3841,8 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" hidden="1">
-      <c r="A86" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A86" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B86" s="1"/>
@@ -3839,13 +3852,13 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>44</v>
@@ -3858,8 +3871,8 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" hidden="1">
-      <c r="A87" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A87" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B87" s="1"/>
@@ -3869,16 +3882,16 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N87" s="1">
         <v>43.0</v>
@@ -3888,8 +3901,8 @@
       <c r="Q87" s="1"/>
     </row>
     <row r="88" hidden="1">
-      <c r="A88" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="A88" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>UKB</v>
       </c>
       <c r="B88" s="1"/>
@@ -3899,13 +3912,13 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>47</v>
@@ -3918,96 +3931,99 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>UKB</v>
+      <c r="A89" s="4" t="str">
+        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
+        <v>SUP WSD</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G89" s="1">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N89" s="1">
-        <v>56.0</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>UKB</v>
+      <c r="A90" s="4" t="str">
+        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+        <v>Train-O-Matic</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G90" s="1">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N90" s="1">
-        <v>60.6</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91:A92" si="19">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
+      <c r="A91" s="4" t="str">
+        <f t="shared" ref="A91:A92" si="17">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>33</v>
@@ -4016,10 +4032,10 @@
         <v>2018.0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>50</v>
@@ -4029,21 +4045,21 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="A92" s="4" t="str">
+        <f t="shared" si="17"/>
         <v>UKB optimal</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>33</v>
@@ -4052,10 +4068,10 @@
         <v>2018.0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>51</v>
@@ -4065,21 +4081,21 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="str">
+      <c r="A93" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>33</v>
@@ -4091,10 +4107,10 @@
         <v>43</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>46</v>
@@ -4104,21 +4120,21 @@
       </c>
     </row>
     <row r="94" ht="27.0" customHeight="1">
-      <c r="A94" s="3" t="str">
-        <f t="shared" ref="A94:A95" si="20">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
+      <c r="A94" s="4" t="str">
+        <f t="shared" ref="A94:A95" si="18">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
         <v>WSD-TM</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>33</v>
@@ -4127,10 +4143,10 @@
         <v>2018.0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>51</v>
@@ -4140,19 +4156,19 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="str">
-        <f t="shared" si="20"/>
+      <c r="A95" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>WSD-TM</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>33</v>
@@ -4161,10 +4177,10 @@
         <v>2018.0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>50</v>
@@ -4173,10 +4189,11 @@
         <v>69.0</v>
       </c>
     </row>
+    <row r="96" hidden="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$S$96">
     <filterColumn colId="10">
-      <filters blank="1">
+      <filters>
         <filter val="se2-aw-v2"/>
         <filter val="se2-aw"/>
         <filter val="se13-aw-v2"/>
@@ -4259,39 +4276,39 @@
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/K15-1037","1million")</f>
         <v>1million</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P15-1173","AutoExtend")</f>
         <v>AutoExtend</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1020","AVE-Antwerp")</f>
         <v>AVE-Antwerp</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <f>COUNTBLANK(C2:C22)</f>
@@ -4302,253 +4319,253 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="3" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/K16-1006","Context2vec")</f>
         <v>Context2vec</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J17-1002","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P16-1085","Iacobacci")</f>
         <v>Iacobacci</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P10-4014","It makes sense")</f>
         <v>It makes sense</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>10.0</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
         <v>LSTM</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>11.0</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="3" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/AIJ_2016_CamachoColladosetal.pdf","Nasari")</f>
         <v>Nasari</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>12.0</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="4" t="str">
         <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
         <v>Popov</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>14.0</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S01-1031","SMUaw")</f>
         <v>SMUaw</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
         <v>SUP WSD</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="4" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="4" t="str">
         <f>HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD_TM")</f>
         <v>WSD_TM</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="26">
-      <c r="B26" s="4"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="29">
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="31">
-      <c r="B31" s="5"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="33">
-      <c r="B33" s="4"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="42">
-      <c r="B42" s="4"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43">
-      <c r="B43" s="4"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44">
-      <c r="B44" s="4"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45">
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47">
-      <c r="B47" s="3" t="str">
+      <c r="B47" s="4" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="3" t="str">
+      <c r="B48" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="3" t="str">
+      <c r="B49" s="4" t="str">
         <f>HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD_TM")</f>
         <v>WSD_TM</v>
       </c>
@@ -4576,7 +4593,7 @@
         <v>0.6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4587,7 +4604,7 @@
         <v>0.62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4598,7 +4615,7 @@
         <v>0.7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4638,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4629,7 +4646,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4652,7 +4669,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -4660,7 +4677,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -4668,7 +4685,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -4676,7 +4693,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -4684,7 +4701,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -4692,7 +4709,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -4700,7 +4717,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -4708,7 +4725,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4731,26 +4748,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>130</v>
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -4759,22 +4776,22 @@
         <v>1million</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4783,22 +4800,22 @@
         <v>AutoExtend</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4807,22 +4824,22 @@
         <v>AVE-Antwerp</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4831,22 +4848,22 @@
         <v>Babelfy</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4855,22 +4872,22 @@
         <v>Babelfy</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -4879,19 +4896,19 @@
         <v>Context2vec</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -4900,22 +4917,22 @@
         <v>context2vec</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -4924,19 +4941,19 @@
         <v>DFKI</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -4945,22 +4962,22 @@
         <v>Game-theoretic</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -4969,22 +4986,22 @@
         <v>Game-theoretic</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4993,19 +5010,19 @@
         <v>Iacobacci</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -5017,16 +5034,16 @@
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -5037,14 +5054,14 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UKB")</f>
+        <v>UKB</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nasari")</f>
         <v>Nasari</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Popov")</f>
-        <v>Popov</v>
       </c>
     </row>
     <row r="17">
@@ -5107,55 +5124,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <f>HYPERLINK("http://wwwusers.di.uniroma1.it/~navigli/pubs/TACL_2014_Babelfy.pdf","Babelfy")</f>
         <v>Babelfy</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/P/P15/P15-1058.pdf","DFKI")</f>
         <v>DFKI</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="3" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -5163,7 +5180,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -5171,7 +5188,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
@@ -5179,7 +5196,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -5187,50 +5204,50 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="3" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S14-1005","SUDOKU")</f>
         <v>SUDOKU</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="3" t="str">
         <f>HYPERLINK("https://arxiv.org/pdf/1606.07711.pdf","Game-theoretic")</f>
         <v>Game-theoretic</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="4" t="str">
         <f>HYPERLINK("http://aclweb.org/anthology/P10-1154","Knowledge-rich WSD")</f>
         <v>Knowledge-rich WSD</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -5248,7 +5265,7 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -5256,38 +5273,38 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="4" t="str">
         <f>HYPERLINK("http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.308.1754&amp;rep=rep1&amp;type=pdf","Connectivity")</f>
         <v>Connectivity</v>
       </c>
@@ -5297,7 +5314,7 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -5305,7 +5322,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
@@ -5313,31 +5330,31 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5360,7 +5377,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/trends/WSD state of the art.xlsx
+++ b/trends/WSD state of the art.xlsx
@@ -13,14 +13,14 @@
     <sheet state="visible" name="ideas" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">results!$A$1:$S$96</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">results!$A$1:$S$97</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="186">
   <si>
     <t>described</t>
   </si>
@@ -115,10 +115,10 @@
     <t>IMS-1M</t>
   </si>
   <si>
+    <t>to go</t>
+  </si>
+  <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/K15-1037/k15-1037.bib</t>
-  </si>
-  <si>
-    <t>to go</t>
   </si>
   <si>
     <t>paper</t>
@@ -191,6 +191,9 @@
     <t>c2v iters+</t>
   </si>
   <si>
+    <t>how to name systems</t>
+  </si>
+  <si>
     <t>context2vec</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>uns</t>
   </si>
   <si>
-    <t>how to name systems</t>
-  </si>
-  <si>
     <t>WSD-games</t>
   </si>
   <si>
@@ -233,34 +233,64 @@
     <t>games</t>
   </si>
   <si>
+    <t>higher than competition or close to</t>
+  </si>
+  <si>
     <t>IMS+embeddings</t>
   </si>
   <si>
+    <t>published results (not arxiv)</t>
+  </si>
+  <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/P16-1085/p16-1085.bib</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>-rag means raganato</t>
+  </si>
+  <si>
     <t>IMS-s+emb SemCor</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>best setting</t>
+  </si>
+  <si>
+    <t>all rag results are either from the paper or from raganato et al. (2017)</t>
+  </si>
+  <si>
+    <t>IMS+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>IMS-s+emb SemCor + OMSTI</t>
+  </si>
+  <si>
     <t>Word2Vec OMSTI</t>
   </si>
   <si>
-    <t>IMS+emb SemCor + OMSTI</t>
-  </si>
-  <si>
     <t>IMS + Word2Vec (OMSTI)</t>
   </si>
   <si>
     <t>se2-aw___nouns</t>
   </si>
   <si>
-    <t>IMS-s+emb SemCor + OMSTI</t>
+    <t>IMS+emb (SemCor)</t>
   </si>
   <si>
     <t>IMS+emb SemCor</t>
   </si>
   <si>
-    <t>IMS+emb (SemCor)</t>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Training data</t>
+  </si>
+  <si>
+    <t>Domains_Supersenses</t>
   </si>
   <si>
     <t>IMS</t>
@@ -269,208 +299,43 @@
     <t>https://aclanthology.coli.uni-saarland.de/papers/P10-4014/p10-4014.bib</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SC, DSO, MUN</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Google News</t>
+  </si>
+  <si>
+    <t>rank 1 system</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dense subgraph</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>densest subgraph heuristic which selects high-coherence semantic interpretations.</t>
+  </si>
+  <si>
     <t>SemCor + OMSTI</t>
   </si>
   <si>
-    <t>rank 1 system</t>
-  </si>
-  <si>
-    <t>Google-LSTM</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/C16-1130/c16-1130.bib</t>
-  </si>
-  <si>
-    <t>LP T:SemCor, U:1K</t>
-  </si>
-  <si>
-    <t>higher than competition or close to</t>
-  </si>
-  <si>
-    <t>published results (not arxiv)</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>-rag means raganato</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>best setting</t>
-  </si>
-  <si>
-    <t>all rag results are either from the paper or from raganato et al. (2017)</t>
-  </si>
-  <si>
-    <t>LP T:OMSTI, U:1K</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>T:SemCor</t>
-  </si>
-  <si>
-    <t>Training data</t>
-  </si>
-  <si>
-    <t>Domains_Supersenses</t>
-  </si>
-  <si>
-    <t>se15-aw</t>
-  </si>
-  <si>
-    <t>LP T:SemCor, U:OMSTI</t>
-  </si>
-  <si>
-    <t>UKB</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>SC, DSO, MUN</t>
-  </si>
-  <si>
-    <t>Nasari</t>
-  </si>
-  <si>
-    <t>https://scholar.googleusercontent.com/scholar.bib?q=info:L7bpWhZnosIJ:scholar.google.com/&amp;output=citation&amp;scisig=AAGBfm0AAAAAW3aYLyb7UeQ3P2UTiNSl6Loy7yZruaM8&amp;scisf=4&amp;ct=citation&amp;cd=-1&amp;hl=nl</t>
-  </si>
-  <si>
-    <t>lexical</t>
-  </si>
-  <si>
-    <t>Autoencoder</t>
-  </si>
-  <si>
-    <t>Google News</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>lexical +IMS</t>
-  </si>
-  <si>
-    <t>Dense subgraph</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>LSTM</t>
   </si>
   <si>
     <t>SC, MUN</t>
-  </si>
-  <si>
-    <t>Multi-Objective Optimization</t>
-  </si>
-  <si>
-    <t>lexical + IMS</t>
-  </si>
-  <si>
-    <t>Attentive Bidirectional LSTM</t>
-  </si>
-  <si>
-    <t>SVM + embeddings</t>
-  </si>
-  <si>
-    <t>ukWaC</t>
-  </si>
-  <si>
-    <t>n,v,ar</t>
-  </si>
-  <si>
-    <t>gloss</t>
-  </si>
-  <si>
-    <t>Game-theoric</t>
-  </si>
-  <si>
-    <t>BLSTM + att</t>
-  </si>
-  <si>
-    <t>BLSTM + att + LEX</t>
-  </si>
-  <si>
-    <t>PPR</t>
-  </si>
-  <si>
-    <t>Neural-Sequence</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1120/d17-1120.bib</t>
-  </si>
-  <si>
-    <t>BLSTM + att + LEX + POS</t>
-  </si>
-  <si>
-    <t>SMUaw</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
-  </si>
-  <si>
-    <t>SupWSD</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb SemCor + OMSTI</t>
-  </si>
-  <si>
-    <t>SUPWSD+emb (SemCor + OMSTI)</t>
-  </si>
-  <si>
-    <t>se3-aw-rag</t>
-  </si>
-  <si>
-    <t>se7-aw-rag</t>
-  </si>
-  <si>
-    <t>se15-aw-rag</t>
-  </si>
-  <si>
-    <t>WSD-RNN</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/R17-2004/r17-2004.bib</t>
-  </si>
-  <si>
-    <t>Train-O-Matic Wiki</t>
-  </si>
-  <si>
-    <t>BabelNet</t>
-  </si>
-  <si>
-    <t>IMSeurosense</t>
-  </si>
-  <si>
-    <t>Train-O-Matic</t>
-  </si>
-  <si>
-    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1008/d17-1008.bib</t>
-  </si>
-  <si>
-    <t>PPRw2w</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>densest subgraph heuristic which selects high-coherence semantic interpretations.</t>
   </si>
   <si>
     <t>for each concept: semantic signature</t>
@@ -482,7 +347,28 @@
 previously-computed semantic signatures. </t>
   </si>
   <si>
+    <t>Multi-Objective Optimization</t>
+  </si>
+  <si>
+    <t>Attentive Bidirectional LSTM</t>
+  </si>
+  <si>
+    <t>SVM + embeddings</t>
+  </si>
+  <si>
     <t>similar to Babelfy, but in a continuous setting</t>
+  </si>
+  <si>
+    <t>ukWaC</t>
+  </si>
+  <si>
+    <t>n,v,ar</t>
+  </si>
+  <si>
+    <t>Game-theoric</t>
+  </si>
+  <si>
+    <t>static</t>
   </si>
   <si>
     <t>context independent ranking of senses</t>
@@ -504,58 +390,205 @@
 nodes</t>
   </si>
   <si>
+    <t xml:space="preserve"> word-to-word -&gt; run ppr separately for each target word (no interaction with other target words)</t>
+  </si>
+  <si>
+    <t>PPR</t>
+  </si>
+  <si>
+    <t>iteratively updating graph when disambiguating (not with great results)</t>
+  </si>
+  <si>
+    <t>terminology</t>
+  </si>
+  <si>
+    <t>Google-LSTM</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/C16-1130/c16-1130.bib</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>building matrices to achieve textual coherence (some words are more relevant than other for disambiguation)</t>
+  </si>
+  <si>
+    <t>LP T:OMSTI, U:1K</t>
+  </si>
+  <si>
+    <t>automatic mapping WordNet and Wikipedia</t>
+  </si>
+  <si>
+    <t>noun relations are transferred from Wikipedia to WordNet</t>
+  </si>
+  <si>
+    <t>WSD improves (on nouns) when doing this (e.g. more relatedness edges is better)</t>
+  </si>
+  <si>
+    <t>LP T:SemCor, U:1K</t>
+  </si>
+  <si>
+    <t>degee centrality</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>can we add cross-pos relations automatically?</t>
+  </si>
+  <si>
+    <t>morphological normalization results</t>
+  </si>
+  <si>
+    <t>first sense way better connected than other senses</t>
+  </si>
+  <si>
+    <t>T:SemCor</t>
+  </si>
+  <si>
+    <t>Degree and PageRank good indication of hunger for knowledge</t>
+  </si>
+  <si>
+    <t>normalization and gloss relations extremely important</t>
+  </si>
+  <si>
+    <t>Degree or PR indication of hunger for knowledge</t>
+  </si>
+  <si>
+    <t>also use sense rank of indication of hunger for knowledge</t>
+  </si>
+  <si>
+    <t>se15-aw</t>
+  </si>
+  <si>
+    <t>LP T:SemCor, U:OMSTI</t>
+  </si>
+  <si>
+    <t>Nasari</t>
+  </si>
+  <si>
+    <t>https://scholar.googleusercontent.com/scholar.bib?q=info:L7bpWhZnosIJ:scholar.google.com/&amp;output=citation&amp;scisig=AAGBfm0AAAAAW3aYLyb7UeQ3P2UTiNSl6Loy7yZruaM8&amp;scisf=4&amp;ct=citation&amp;cd=-1&amp;hl=nl</t>
+  </si>
+  <si>
+    <t>lexical</t>
+  </si>
+  <si>
+    <t>lexical +IMS</t>
+  </si>
+  <si>
+    <t>lexical + IMS</t>
+  </si>
+  <si>
+    <t>WSD-RNN</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/R17-2004/r17-2004.bib</t>
+  </si>
+  <si>
+    <t>BLSTM + att</t>
+  </si>
+  <si>
+    <t>BLSTM + att + LEX</t>
+  </si>
+  <si>
+    <t>Neural-Sequence</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1120/d17-1120.bib</t>
+  </si>
+  <si>
+    <t>BLSTM + att + LEX + POS</t>
+  </si>
+  <si>
+    <t>SMUaw</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1031/s01-1031.bib</t>
+  </si>
+  <si>
+    <t>context2vec already used knn</t>
+  </si>
+  <si>
+    <t>LIA-Sinequa</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/S01-1016/s01-1016.bib</t>
+  </si>
+  <si>
+    <t>SupWSD</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-2018/d17-2018.bib</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb SemCor + OMSTI</t>
+  </si>
+  <si>
+    <t>SUPWSD+emb (SemCor + OMSTI)</t>
+  </si>
+  <si>
+    <t>se3-aw-rag</t>
+  </si>
+  <si>
+    <t>se7-aw-rag</t>
+  </si>
+  <si>
+    <t>se15-aw-rag</t>
+  </si>
+  <si>
+    <t>Train-O-Matic Wiki</t>
+  </si>
+  <si>
+    <t>BabelNet</t>
+  </si>
+  <si>
+    <t>IMSeurosense</t>
+  </si>
+  <si>
+    <t>Train-O-Matic</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/D17-1008/d17-1008.bib</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>https://aclanthology.coli.uni-saarland.de/papers/J14-1003/j14-1003.bib</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>PPRw2w</t>
+  </si>
+  <si>
     <t>UKB-optimal</t>
   </si>
   <si>
-    <t xml:space="preserve"> word-to-word -&gt; run ppr separately for each target word (no interaction with other target words)</t>
-  </si>
-  <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/W18-2505/w18-2505.bib</t>
   </si>
   <si>
-    <t>context2vec already used knn</t>
-  </si>
-  <si>
-    <t>iteratively updating graph when disambiguating (not with great results)</t>
-  </si>
-  <si>
-    <t>terminology</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
     <t>UMCC-DLSI</t>
   </si>
   <si>
     <t>https://aclanthology.coli.uni-saarland.de/papers/S13-2042/s13-2042.bib</t>
   </si>
   <si>
-    <t>building matrices to achieve textual coherence (some words are more relevant than other for disambiguation)</t>
-  </si>
-  <si>
     <t>RUN-2</t>
   </si>
   <si>
-    <t>automatic mapping WordNet and Wikipedia</t>
-  </si>
-  <si>
     <t>WSD-TM</t>
-  </si>
-  <si>
-    <t>noun relations are transferred from Wikipedia to WordNet</t>
-  </si>
-  <si>
-    <t>WSD improves (on nouns) when doing this (e.g. more relatedness edges is better)</t>
   </si>
   <si>
     <t>@paper{AAAI1817415,
@@ -567,33 +600,6 @@
         abstract = {Word Sense Disambiguation is an open problem in Natural Language Processing which is particularly challenging and useful in the unsupervised setting where all the words in any given text need to be disambiguated without using any labeled data. Typically WSD systems use the sentence or a small window of words around the target word as the context for disambiguation because their computational complexity scales exponentially with the size of the context. In this paper, we leverage the formalism of topic model to design a WSD system that scales linearly with the number of words in the context. As a result, our system is able to utilize the whole document as the context for a word to be disambiguated. The proposed method is a variant of Latent Dirichlet Allocation in which the topic proportions for a document are replaced by synset proportions. We further utilize the information in the WordNet by assigning a non-uniform prior to synset distribution over words and a logistic-normal prior for document distribution over synsets. We evaluate the proposed method on Senseval-2, Senseval-3, SemEval-2007, SemEval-2013 and SemEval-2015 English All-Word WSD datasets and show that it outperforms the state-of-the-art unsupervised knowledge-based WSD system by a significant margin.},
         url = {https://aaai.org/ocs/index.php/AAAI/AAAI18/paper/view/17415/16787}
 }</t>
-  </si>
-  <si>
-    <t>degee centrality</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>can we add cross-pos relations automatically?</t>
-  </si>
-  <si>
-    <t>morphological normalization results</t>
-  </si>
-  <si>
-    <t>first sense way better connected than other senses</t>
-  </si>
-  <si>
-    <t>Degree and PageRank good indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>normalization and gloss relations extremely important</t>
-  </si>
-  <si>
-    <t>Degree or PR indication of hunger for knowledge</t>
-  </si>
-  <si>
-    <t>also use sense rank of indication of hunger for knowledge</t>
   </si>
 </sst>
 </file>
@@ -883,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -1284,10 +1290,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
@@ -1302,7 +1308,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>51</v>
@@ -1326,10 +1332,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -1344,7 +1350,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>50</v>
@@ -1368,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>49</v>
@@ -1386,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>51</v>
@@ -1410,10 +1416,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>49</v>
@@ -1428,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>50</v>
@@ -1458,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>44</v>
@@ -1522,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>47</v>
@@ -1580,10 +1586,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
@@ -1598,7 +1604,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>46</v>
@@ -1625,13 +1631,13 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -1655,13 +1661,13 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>26</v>
@@ -1691,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
@@ -1721,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>28</v>
@@ -1757,19 +1763,19 @@
         <v>2017.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N28" s="1">
-        <v>66.0</v>
+        <v>70.8</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>22</v>
@@ -1799,19 +1805,19 @@
         <v>2017.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N29" s="1">
-        <v>70.8</v>
+        <v>66.0</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>22</v>
@@ -1829,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>49</v>
@@ -1847,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>51</v>
@@ -1871,13 +1877,13 @@
         <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G31" s="1">
         <v>2016.0</v>
@@ -1889,19 +1895,17 @@
         <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N31" s="1">
-        <v>68.3</v>
+        <v>66.3</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="str">
@@ -1915,10 +1919,10 @@
         <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>49</v>
@@ -1933,13 +1937,13 @@
         <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N32" s="1">
-        <v>70.8</v>
+        <v>66.7</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1957,13 +1961,13 @@
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1">
         <v>2016.0</v>
@@ -1975,17 +1979,19 @@
         <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N33" s="1">
-        <v>66.3</v>
+        <v>68.3</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" hidden="1">
       <c r="A34" s="3" t="str">
@@ -2005,7 +2011,7 @@
         <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>28</v>
@@ -2037,7 +2043,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>47</v>
@@ -2069,10 +2075,10 @@
         <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N36" s="1">
         <v>77.7</v>
@@ -2101,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>44</v>
@@ -2133,7 +2139,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>26</v>
@@ -2159,10 +2165,10 @@
         <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>49</v>
@@ -2177,13 +2183,13 @@
         <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N39" s="1">
-        <v>66.7</v>
+        <v>70.8</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2201,10 +2207,10 @@
         <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
@@ -2219,13 +2225,13 @@
         <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N40" s="1">
-        <v>71.0</v>
+        <v>67.3</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2243,10 +2249,10 @@
         <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>49</v>
@@ -2261,13 +2267,13 @@
         <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N41" s="1">
-        <v>72.2</v>
+        <v>71.0</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2285,10 +2291,10 @@
         <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
@@ -2303,13 +2309,13 @@
         <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N42" s="1">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2327,10 +2333,10 @@
         <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
@@ -2345,13 +2351,13 @@
         <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N43" s="1">
-        <v>67.3</v>
+        <v>73.3</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2369,10 +2375,10 @@
         <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>49</v>
@@ -2387,13 +2393,13 @@
         <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N44" s="1">
-        <v>65.0</v>
+        <v>70.9</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2411,13 +2417,13 @@
         <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G45" s="1">
         <v>2010.0</v>
@@ -2429,13 +2435,13 @@
         <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N45" s="1">
-        <v>65.3</v>
+        <v>35</v>
+      </c>
+      <c r="M45" s="1">
+        <v>69.0</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2453,10 +2459,10 @@
         <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -2471,13 +2477,13 @@
         <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" s="1">
-        <v>70.9</v>
+        <v>72.8</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2495,13 +2501,13 @@
         <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G47" s="1">
         <v>2010.0</v>
@@ -2513,13 +2519,13 @@
         <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47" s="1">
-        <v>69.0</v>
+        <v>51</v>
+      </c>
+      <c r="N47" s="1">
+        <v>65.0</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2537,10 +2543,10 @@
         <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>49</v>
@@ -2555,13 +2561,13 @@
         <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N48" s="1">
-        <v>72.8</v>
+        <v>65.3</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2583,7 +2589,7 @@
         <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>28</v>
@@ -2611,7 +2617,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>26</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="str">
-        <f t="shared" ref="A51:A57" si="10">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
+        <f t="shared" ref="A51:A58" si="10">HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
         <v>LSTM</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2635,10 +2641,10 @@
         <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>33</v>
@@ -2653,13 +2659,13 @@
         <v>24</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N51" s="1">
-        <v>69.5</v>
+        <v>74.4</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2685,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>28</v>
@@ -2717,10 +2723,10 @@
         <v>24</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N53" s="1">
         <v>79.9</v>
@@ -2749,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>47</v>
@@ -2781,10 +2787,10 @@
         <v>24</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="N55" s="1">
         <v>72.6</v>
@@ -2813,7 +2819,7 @@
         <v>24</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>44</v>
@@ -2845,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>26</v>
@@ -2861,8 +2867,8 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="str">
-        <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
-        <v>UKB</v>
+        <f t="shared" si="10"/>
+        <v>LSTM</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>29</v>
@@ -2871,16 +2877,16 @@
         <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G58" s="1">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>23</v>
@@ -2888,11 +2894,19 @@
       <c r="I58" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N58" s="1">
-        <v>56.0</v>
+        <v>69.5</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -2907,10 +2921,10 @@
         <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>33</v>
@@ -2925,7 +2939,7 @@
         <v>24</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>46</v>
@@ -2958,7 +2972,7 @@
         <v>24</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>47</v>
@@ -2991,7 +3005,7 @@
         <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>47</v>
@@ -3018,10 +3032,10 @@
         <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>33</v>
@@ -3036,7 +3050,7 @@
         <v>24</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>46</v>
@@ -3052,9 +3066,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="str">
-        <f>HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
-        <v>UKB</v>
+      <c r="A63" s="4" t="str">
+        <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
+        <v>Popov</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>29</v>
@@ -3063,16 +3077,16 @@
         <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G63" s="1">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>23</v>
@@ -3081,13 +3095,13 @@
         <v>24</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N63" s="1">
-        <v>60.6</v>
+        <v>70.11</v>
       </c>
     </row>
     <row r="64" hidden="1">
@@ -3108,7 +3122,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>28</v>
@@ -3137,10 +3151,10 @@
         <v>24</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="N65" s="1">
         <v>72.4</v>
@@ -3150,7 +3164,7 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="str">
-        <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
+        <f t="shared" ref="A66:A67" si="13">HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
         <v>Raganato_et_al_2017</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3160,10 +3174,10 @@
         <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>33</v>
@@ -3178,21 +3192,21 @@
         <v>24</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N66" s="1">
-        <v>66.9</v>
+        <v>72.0</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="str">
-        <f>HYPERLINK("http://aclweb.org/anthology/C16-1130","LSTM")</f>
-        <v>LSTM</v>
+        <f t="shared" si="13"/>
+        <v>Raganato_et_al_2017</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>29</v>
@@ -3201,16 +3215,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G67" s="1">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>23</v>
@@ -3219,19 +3233,16 @@
         <v>24</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N67" s="1">
-        <v>74.4</v>
+        <v>66.9</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
@@ -3245,10 +3256,10 @@
         <v>22</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>33</v>
@@ -3272,32 +3283,32 @@
         <v>69.0</v>
       </c>
       <c r="N68">
-        <f>(2 * (L68*M68)) / (L68+M68)</f>
+        <f t="shared" ref="N68:N69" si="14">(2 * (L68*M68)) / (L68+M68)</f>
         <v>69</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="str">
-        <f t="shared" ref="A69:A72" si="13">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
-        <v>SUP WSD</v>
+      <c r="A69" s="3" t="str">
+        <f>HYPERLINK("http://aclweb.org/anthology/S01-1016","LIA-Sinequa")</f>
+        <v>LIA-Sinequa</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G69" s="1">
-        <v>2017.0</v>
+        <v>2001.0</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>23</v>
@@ -3305,26 +3316,41 @@
       <c r="I69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N69" s="1">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="70" hidden="1">
+        <v>35</v>
+      </c>
+      <c r="L69" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="M69" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="14"/>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A70:A74" si="15">HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
         <v>SUP WSD</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G70" s="1">
         <v>2017.0</v>
       </c>
@@ -3335,18 +3361,18 @@
         <v>24</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="N70" s="1">
-        <v>70.8</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="71" hidden="1">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>SUP WSD</v>
       </c>
       <c r="B71" s="1"/>
@@ -3364,18 +3390,18 @@
         <v>24</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="N71" s="1">
-        <v>64.2</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="72" hidden="1">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>SUP WSD</v>
       </c>
       <c r="B72" s="1"/>
@@ -3393,35 +3419,25 @@
         <v>24</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="N72" s="1">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="73" hidden="1">
       <c r="A73" s="4" t="str">
-        <f>HYPERLINK("http://www.acl-bg.org/proceedings/2017/RANLPStud%202017/pdf/RANLPStud004.pdf","Popov")</f>
-        <v>Popov</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>33</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>SUP WSD</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1">
         <v>2017.0</v>
       </c>
@@ -3432,25 +3448,35 @@
         <v>24</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="N73" s="1">
-        <v>70.11</v>
-      </c>
-    </row>
-    <row r="74" hidden="1">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="4" t="str">
-        <f t="shared" ref="A74:A76" si="14">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
-        <v>Train-O-Matic</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+        <f t="shared" si="15"/>
+        <v>SUP WSD</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G74" s="1">
         <v>2017.0</v>
       </c>
@@ -3461,18 +3487,18 @@
         <v>24</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="N74" s="1">
-        <v>68.8</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="75" hidden="1">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A75:A77" si="16">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
         <v>Train-O-Matic</v>
       </c>
       <c r="B75" s="1"/>
@@ -3490,18 +3516,18 @@
         <v>24</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="N75" s="1">
-        <v>59.8</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="76" hidden="1">
       <c r="A76" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>Train-O-Matic</v>
       </c>
       <c r="B76" s="1"/>
@@ -3519,19 +3545,19 @@
         <v>24</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="N76" s="1">
-        <v>67.4</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="77" hidden="1">
       <c r="A77" s="4" t="str">
-        <f t="shared" ref="A77:A78" si="15">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
-        <v>Eurosense</v>
+        <f t="shared" si="16"/>
+        <v>Train-O-Matic</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3545,21 +3571,21 @@
         <v>23</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="N77" s="1">
-        <v>66.4</v>
+        <v>67.4</v>
       </c>
     </row>
     <row r="78" hidden="1">
       <c r="A78" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A78:A79" si="17">HYPERLINK("http://www.aclweb.org/anthology/P17-2094","Eurosense")</f>
         <v>Eurosense</v>
       </c>
       <c r="B78" s="1"/>
@@ -3574,38 +3600,28 @@
         <v>23</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N78" s="1">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>66.4</v>
+      </c>
+    </row>
+    <row r="79" hidden="1">
       <c r="A79" s="4" t="str">
-        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
-        <v>Train-O-Matic</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>33</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>Eurosense</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1">
         <v>2017.0</v>
       </c>
@@ -3613,22 +3629,22 @@
         <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="N79" s="1">
-        <v>65.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="str">
-        <f>HYPERLINK("http://aclweb.org/anthology/D17-1120","Raganato_et_al_2017")</f>
-        <v>Raganato_et_al_2017</v>
+      <c r="A80" s="4" t="str">
+        <f t="shared" ref="A80:A81" si="18">HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
+        <v>Train-O-Matic</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>29</v>
@@ -3637,10 +3653,10 @@
         <v>22</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>33</v>
@@ -3655,21 +3671,19 @@
         <v>24</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N80" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
+        <v>70.5</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="str">
-        <f t="shared" ref="A81:A88" si="16">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
-        <v>UKB</v>
+      <c r="A81" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Train-O-Matic</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>29</v>
@@ -3678,16 +3692,16 @@
         <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="1">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>23</v>
@@ -3696,18 +3710,18 @@
         <v>24</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N81" s="1">
-        <v>59.7</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A82:A91" si="19">HYPERLINK("http://aclweb.org/anthology/J14-1003","UKB")</f>
         <v>UKB</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3717,10 +3731,10 @@
         <v>22</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>49</v>
@@ -3735,15 +3749,15 @@
         <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N82" s="1">
-        <v>53.6</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3753,10 +3767,10 @@
         <v>22</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>49</v>
@@ -3771,26 +3785,38 @@
         <v>24</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N83" s="1">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="84" hidden="1">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2014.0</v>
+      </c>
       <c r="H84" s="1" t="s">
         <v>23</v>
       </c>
@@ -3798,21 +3824,18 @@
         <v>24</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="N84" s="1">
-        <v>71.8</v>
-      </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+        <v>59.7</v>
+      </c>
     </row>
     <row r="85" hidden="1">
       <c r="A85" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
       <c r="B85" s="1"/>
@@ -3828,13 +3851,13 @@
         <v>24</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="N85" s="1">
-        <v>57.9</v>
+        <v>71.8</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -3842,7 +3865,7 @@
     </row>
     <row r="86" hidden="1">
       <c r="A86" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
       <c r="B86" s="1"/>
@@ -3858,13 +3881,13 @@
         <v>24</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N86" s="1">
-        <v>65.3</v>
+        <v>57.9</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -3872,7 +3895,7 @@
     </row>
     <row r="87" hidden="1">
       <c r="A87" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
       <c r="B87" s="1"/>
@@ -3888,13 +3911,13 @@
         <v>24</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N87" s="1">
-        <v>43.0</v>
+        <v>65.3</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -3902,7 +3925,7 @@
     </row>
     <row r="88" hidden="1">
       <c r="A88" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>UKB</v>
       </c>
       <c r="B88" s="1"/>
@@ -3918,41 +3941,29 @@
         <v>24</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N88" s="1">
-        <v>56.0</v>
+        <v>43.0</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="4" t="str">
-        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-2018","SUP WSD")</f>
-        <v>SUP WSD</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" s="1">
-        <v>2017.0</v>
-      </c>
+    <row r="89" hidden="1">
+      <c r="A89" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>UKB</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>23</v>
       </c>
@@ -3960,19 +3971,22 @@
         <v>24</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N89" s="1">
-        <v>73.8</v>
-      </c>
+        <v>56.0</v>
+      </c>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="str">
-        <f>HYPERLINK("http://www.aclweb.org/anthology/D17-1008","Train-O-Matic")</f>
-        <v>Train-O-Matic</v>
+      <c r="A90" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>UKB</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>29</v>
@@ -3981,16 +3995,16 @@
         <v>22</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G90" s="1">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>23</v>
@@ -3998,20 +4012,17 @@
       <c r="I90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="K90" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N90" s="1">
-        <v>70.5</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="str">
-        <f t="shared" ref="A91:A92" si="17">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
-        <v>UKB optimal</v>
+      <c r="A91" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>UKB</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>29</v>
@@ -4020,16 +4031,16 @@
         <v>22</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G91" s="1">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>23</v>
@@ -4037,16 +4048,19 @@
       <c r="I91" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J91" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N91" s="1">
-        <v>68.8</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A92:A93" si="20">HYPERLINK("http://aclweb.org/anthology/W18-2505","UKB optimal")</f>
         <v>UKB optimal</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4056,10 +4070,10 @@
         <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>33</v>
@@ -4074,7 +4088,7 @@
         <v>24</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N92" s="1">
         <v>68.8</v>
@@ -4082,93 +4096,95 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>UKB optimal</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N93" s="1">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
         <f>HYPERLINK("http://www.aclweb.org/anthology/S13-2042","UMCC DLSI")</f>
         <v>UMCC DLSI</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N93" s="1">
-        <v>64.7</v>
-      </c>
-    </row>
-    <row r="94" ht="27.0" customHeight="1">
-      <c r="A94" s="4" t="str">
-        <f t="shared" ref="A94:A95" si="18">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
-        <v>WSD-TM</v>
-      </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G94" s="1">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J94" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N94" s="1">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="95" ht="27.0" customHeight="1">
       <c r="A95" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A95:A96" si="21">HYPERLINK("https://www.semanticscholar.org/paper/Knowledge-based-Word-Sense-Disambiguation-using-Chaplot-Salakhutdinov/d64abf2b548d805dbcb3a5b457406809df9b2bc2/figure/1","WSD-TM")</f>
         <v>WSD-TM</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>33</v>
@@ -4183,15 +4199,49 @@
         <v>24</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N95" s="1">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>WSD-TM</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N96" s="1">
         <v>69.0</v>
       </c>
     </row>
-    <row r="96" hidden="1"/>
+    <row r="97" hidden="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$S$96">
+  <autoFilter ref="$A$1:$S$97">
     <filterColumn colId="10">
       <filters>
         <filter val="se2-aw-v2"/>
@@ -4241,19 +4291,20 @@
     <hyperlink r:id="rId31" ref="E67"/>
     <hyperlink r:id="rId32" ref="E68"/>
     <hyperlink r:id="rId33" ref="E69"/>
-    <hyperlink r:id="rId34" ref="E73"/>
-    <hyperlink r:id="rId35" ref="E79"/>
+    <hyperlink r:id="rId34" ref="E70"/>
+    <hyperlink r:id="rId35" ref="E74"/>
     <hyperlink r:id="rId36" ref="E80"/>
     <hyperlink r:id="rId37" ref="E81"/>
     <hyperlink r:id="rId38" ref="E82"/>
     <hyperlink r:id="rId39" ref="E83"/>
-    <hyperlink r:id="rId40" ref="E89"/>
+    <hyperlink r:id="rId40" ref="E84"/>
     <hyperlink r:id="rId41" ref="E90"/>
     <hyperlink r:id="rId42" ref="E91"/>
     <hyperlink r:id="rId43" ref="E92"/>
     <hyperlink r:id="rId44" ref="E93"/>
+    <hyperlink r:id="rId45" ref="E94"/>
   </hyperlinks>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -4308,7 +4359,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <f>COUNTBLANK(C2:C22)</f>
@@ -4646,7 +4697,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4677,7 +4728,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -4685,7 +4736,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -4693,7 +4744,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -4701,7 +4752,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -4709,7 +4760,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -4717,7 +4768,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -4725,7 +4776,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4761,37 +4812,37 @@
         <v>18</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(results!A2:A70)"),"1million")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(results!A2:A71)"),"1million")</f>
         <v>1million</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -4803,19 +4854,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -4827,19 +4878,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -4851,19 +4902,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -4875,19 +4926,19 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -4899,16 +4950,16 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -4920,19 +4971,19 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -4941,19 +4992,19 @@
         <v>DFKI</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -4965,19 +5016,19 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -4989,19 +5040,19 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -5013,16 +5064,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -5034,16 +5085,16 @@
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -5054,14 +5105,14 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UKB")</f>
-        <v>UKB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nasari")</f>
+        <v>Nasari</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nasari")</f>
-        <v>Nasari</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Popov")</f>
+        <v>Popov</v>
       </c>
     </row>
     <row r="17">
@@ -5084,6 +5135,12 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LIA-Sinequa")</f>
+        <v>LIA-Sinequa</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SUP WSD")</f>
         <v>SUP WSD</v>
       </c>
@@ -5108,8 +5165,9 @@
     <hyperlink r:id="rId16" ref="A18"/>
     <hyperlink r:id="rId17" ref="A19"/>
     <hyperlink r:id="rId18" ref="A20"/>
+    <hyperlink r:id="rId19" ref="A21"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -5131,17 +5189,17 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -5150,7 +5208,7 @@
         <v>DFKI</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -5161,18 +5219,18 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -5180,7 +5238,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -5188,7 +5246,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
@@ -5196,7 +5254,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -5204,7 +5262,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -5213,7 +5271,7 @@
         <v>SUDOKU</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -5222,28 +5280,28 @@
         <v>Game-theoretic</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -5257,7 +5315,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -5265,7 +5323,7 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
@@ -5273,7 +5331,7 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -5282,24 +5340,24 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -5314,7 +5372,7 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
@@ -5322,7 +5380,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -5330,31 +5388,31 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +5435,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
